--- a/src/attributions/attributions_saliency_traj_75.xlsx
+++ b/src/attributions/attributions_saliency_traj_75.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006202768068760633</v>
+        <v>0.008786200545728207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004486639052629471</v>
+        <v>0.05096505582332611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000646639266051352</v>
+        <v>0.001882541459053755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003904209239408374</v>
+        <v>0.01330121140927076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00421711802482605</v>
+        <v>0.002011090982705355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01773000881075859</v>
+        <v>0.0191690307110548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001916948240250349</v>
+        <v>0.001535534858703613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003520251950249076</v>
+        <v>0.001275809016078711</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02775548957288265</v>
+        <v>0.006634311284869909</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003048294223845005</v>
+        <v>0.007709547411650419</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004085090942680836</v>
+        <v>0.03381180018186569</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01230534631758928</v>
+        <v>0.007499201223254204</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003702219109982252</v>
+        <v>0.01318413577973843</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004077618476003408</v>
+        <v>0.01378658972680569</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00407999474555254</v>
+        <v>0.02478310652077198</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006555698812007904</v>
+        <v>0.004805419594049454</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004891010001301765</v>
+        <v>0.01206333376467228</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02164633944630623</v>
+        <v>0.004330466501414776</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001355366781353951</v>
+        <v>0.001531859976239502</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0003659632930066437</v>
+        <v>0.00696639996021986</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002172767417505383</v>
+        <v>0.002298319479450583</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005336891859769821</v>
+        <v>0.008461076766252518</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005726801231503487</v>
+        <v>0.004887946415692568</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0002902896667364985</v>
+        <v>0.006948588881641626</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.009769503958523273</v>
+        <v>0.002648925641551614</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00223633018322289</v>
+        <v>0.005849966313689947</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.005417035892605782</v>
+        <v>0.004116359166800976</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001393514452502131</v>
+        <v>0.001051960978657007</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.006719579920172691</v>
+        <v>0.00522463908419013</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002474011154845357</v>
+        <v>0.005833302158862352</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.006734054535627365</v>
+        <v>0.005895011592656374</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.003008105792105198</v>
+        <v>0.007419382221996784</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001681567635387182</v>
+        <v>0.002166455378755927</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.008891565725207329</v>
+        <v>0.007430267054587603</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.002405665349215269</v>
+        <v>0.0008280817419290543</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.004238587338477373</v>
+        <v>0.00525376945734024</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0007246038876473904</v>
+        <v>0.006029710173606873</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.004059688188135624</v>
+        <v>0.009871506132185459</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.003177132224664092</v>
+        <v>0.0003761400294024497</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0004972165916115046</v>
+        <v>0.00642872229218483</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.001135426107794046</v>
+        <v>0.001590193947777152</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.009578919038176537</v>
+        <v>0.006550751626491547</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.002407245803624392</v>
+        <v>0.0009867380140349269</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.002090469235554338</v>
+        <v>0.001510670175775886</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0003570543485693634</v>
+        <v>0.0009171924320980906</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.009420393034815788</v>
+        <v>0.004920818377286196</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.004579744767397642</v>
+        <v>0.03337089717388153</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.01158706098794937</v>
+        <v>0.001400903332978487</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.003448402974754572</v>
+        <v>0.006936794146895409</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.007455589715391397</v>
+        <v>0.009883463382720947</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.008655835874378681</v>
+        <v>0.00437765009701252</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.00979884434491396</v>
+        <v>0.006723836529999971</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.007810602430254221</v>
+        <v>0.001297033624723554</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01160256657749414</v>
+        <v>0.003655718639492989</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.001602870877832174</v>
+        <v>0.004922598134726286</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.004413582850247622</v>
+        <v>0.01037974562495947</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.003665565745905042</v>
+        <v>0.002800511894747615</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.000902542204130441</v>
+        <v>0.0003316202200949192</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.009352061897516251</v>
+        <v>0.01778968423604965</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.006184587720781565</v>
+        <v>0.006818256340920925</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.005135827697813511</v>
+        <v>0.007932744920253754</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01094052568078041</v>
+        <v>0.009272905997931957</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.007230749819427729</v>
+        <v>0.002176554873585701</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.001156865619122982</v>
+        <v>0.0101962061598897</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.001175242708995938</v>
+        <v>0.001377366832457483</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.006868567317724228</v>
+        <v>0.00166369485668838</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002374682109802961</v>
+        <v>0.0002135832328349352</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0001168380840681493</v>
+        <v>0.004297298844903708</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.002272979589179158</v>
+        <v>0.0004707864718511701</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.004188887774944305</v>
+        <v>0.004372323397547007</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.004320964682847261</v>
+        <v>0.002248206175863743</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.004290108568966389</v>
+        <v>0.001285257283598185</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.002442325232550502</v>
+        <v>0.004887099377810955</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.003637959249317646</v>
+        <v>0.01638380251824856</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.001137657323852181</v>
+        <v>0.001762214815244079</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.003043466713279486</v>
+        <v>0.004285705275833607</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0108521468937397</v>
+        <v>0.002619369421154261</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.003233669325709343</v>
+        <v>0.0116158127784729</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.001851714332588017</v>
+        <v>0.001821366022340953</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.008149533532559872</v>
+        <v>0.00292150629684329</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01085001695901155</v>
+        <v>0.002017059363424778</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0001887527178041637</v>
+        <v>0.004716323688626289</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.004596175625920296</v>
+        <v>0.007354429457336664</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0005476523656398058</v>
+        <v>0.0009648378472775221</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.002172110602259636</v>
+        <v>0.0007056257454678416</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.002535074949264526</v>
+        <v>0.002633085008710623</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001646958640776575</v>
+        <v>0.003419505665078759</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.002552929800003767</v>
+        <v>0.0041492716409266</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0004241093411110342</v>
+        <v>0.0008895847131498158</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.001658014371059835</v>
+        <v>0.001267395680770278</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.001773925265297294</v>
+        <v>0.0001732953533064574</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.003692081663757563</v>
+        <v>0.0004574214108288288</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.003188505303114653</v>
+        <v>0.003948253113776445</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.005878480151295662</v>
+        <v>0.006511902436614037</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.002007686765864491</v>
+        <v>0.002892318880185485</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.003648515092208982</v>
+        <v>0.009059244766831398</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.001734727993607521</v>
+        <v>0.009785604663193226</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0003119430621154606</v>
+        <v>0.01148424856364727</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.008377549238502979</v>
+        <v>0.007004437502473593</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0008426068816334009</v>
+        <v>0.003858934156596661</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003954526968300343</v>
+        <v>0.006395929958671331</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0002306722308276221</v>
+        <v>0.0005183059256523848</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.001065390184521675</v>
+        <v>0.002510184654965997</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.002657333388924599</v>
+        <v>0.003530092304572463</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.003757855854928493</v>
+        <v>0.00609627366065979</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.001065571326762438</v>
+        <v>0.004359765443950891</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0003273889888077974</v>
+        <v>0.001275560818612576</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.003739789361134171</v>
+        <v>0.000411947607062757</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.003124295501038432</v>
+        <v>0.004527626559138298</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.004882066510617733</v>
+        <v>0.006041594780981541</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01415579952299595</v>
+        <v>0.001535735907964408</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.0003496862482279539</v>
+        <v>0.002437429968267679</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01371186785399914</v>
+        <v>0.001718686195090413</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.01734382286667824</v>
+        <v>0.003741302527487278</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01421256083995104</v>
+        <v>0.006213280837982893</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.002649604342877865</v>
+        <v>0.006837798748165369</v>
       </c>
       <c r="DM3" t="n">
-        <v>2.393276372458786e-05</v>
+        <v>0.002760800998657942</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.002312140539288521</v>
+        <v>0.005465247668325901</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.001441676751710474</v>
+        <v>0.0003852601512335241</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.008925431407988071</v>
+        <v>0.001325006829574704</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.001191516872495413</v>
+        <v>0.01163400989025831</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.001871755113825202</v>
+        <v>0.00611294386908412</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0002218878944404423</v>
+        <v>0.007059856783598661</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0003552689158823341</v>
+        <v>0.0003893341054208577</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.001982139190658927</v>
+        <v>0.0001049165148288012</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.002883058041334152</v>
+        <v>0.002944285282865167</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003273492213338614</v>
+        <v>0.004382107872515917</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.001405286137014627</v>
+        <v>0.003196085104718804</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0003512549155857414</v>
+        <v>0.01047846674919128</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0006985177751630545</v>
+        <v>0.003125671297311783</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.00758943660184741</v>
+        <v>0.006590666715055704</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.002360737882554531</v>
+        <v>0.003058610716834664</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.005717028398066759</v>
+        <v>0.002390187466517091</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0007974212639965117</v>
+        <v>0.008645439520478249</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.003999186214059591</v>
+        <v>0.007150216493755579</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0004732121014967561</v>
+        <v>0.0004281657747924328</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.01043511554598808</v>
+        <v>0.002620561746880412</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.001284075900912285</v>
+        <v>0.00140293431468308</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.002099583856761456</v>
+        <v>0.01013072859495878</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0002310317941009998</v>
+        <v>0.005975713487714529</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.002173291286453605</v>
+        <v>0.003446729620918632</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.001035821391269565</v>
+        <v>0.007608162239193916</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0001395880826748908</v>
+        <v>0.001246921601705253</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.004982105456292629</v>
+        <v>0.002816777909174562</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.004431739449501038</v>
+        <v>0.0009261196246370673</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.005983532872051001</v>
+        <v>0.004896021913737059</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.003334612818434834</v>
+        <v>0.003522002371028066</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0009657967602834105</v>
+        <v>0.002010360825806856</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.000329755712300539</v>
+        <v>0.002012924756854773</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.004751866683363914</v>
+        <v>0.01966438442468643</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.006694913841784</v>
+        <v>0.002866771072149277</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.001572157023474574</v>
+        <v>0.003249566769227386</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.004623444750905037</v>
+        <v>0.004394488874822855</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0009940231684595346</v>
+        <v>0.004049431532621384</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.00404133228585124</v>
+        <v>0.006660324521362782</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0004472988948691636</v>
+        <v>0.001583213917911053</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.001910212682560086</v>
+        <v>0.0007844628999009728</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.002221146831288934</v>
+        <v>0.003683065064251423</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.00388659629970789</v>
+        <v>0.005607206374406815</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0007503207889385521</v>
+        <v>0.00312836654484272</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001367822755128145</v>
+        <v>0.0001287271152250469</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.003018890507519245</v>
+        <v>0.001014292938634753</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.002881505060940981</v>
+        <v>0.002490748185664415</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.002579739782959223</v>
+        <v>0.007829926908016205</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003631219500675797</v>
+        <v>0.003028165549039841</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.002224139170721173</v>
+        <v>0.01004775799810886</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.003354369895532727</v>
+        <v>0.008163400925695896</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.004000592976808548</v>
+        <v>0.00924135185778141</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.001966185634955764</v>
+        <v>0.0008873115293681622</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0005733596626669168</v>
+        <v>0.007227583322674036</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.001515865908004344</v>
+        <v>0.008369420655071735</v>
       </c>
       <c r="FP3" t="n">
-        <v>3.138091415166855e-06</v>
+        <v>0.0008938164683058858</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.00217925594188273</v>
+        <v>0.000916670891456306</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.001169661176390946</v>
+        <v>0.008977894671261311</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01530730538070202</v>
+        <v>0.001415914390236139</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002534233499318361</v>
+        <v>0.01361969113349915</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.003761574625968933</v>
+        <v>0.008277011103928089</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.003024759236723185</v>
+        <v>0.006652169860899448</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.00422291224822402</v>
+        <v>0.003089184872806072</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.007579782046377659</v>
+        <v>0.0001936968183144927</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.004618493840098381</v>
+        <v>0.0005784569075331092</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.00703335227444768</v>
+        <v>0.005599895026534796</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.00271078641526401</v>
+        <v>0.001067324192263186</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0009061910095624626</v>
+        <v>0.003512104041874409</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.003561999415978789</v>
+        <v>0.002433954738080502</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.005545381456613541</v>
+        <v>0.001264062011614442</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.00233579333871603</v>
+        <v>0.005554705392569304</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.004112991970032454</v>
+        <v>0.0007601546822115779</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.005573113914579153</v>
+        <v>0.002828037831932306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.139365384820849e-06</v>
+        <v>0.004326048772782087</v>
       </c>
       <c r="B4" t="n">
-        <v>5.155912276677554e-06</v>
+        <v>0.04588586464524269</v>
       </c>
       <c r="C4" t="n">
-        <v>2.67751620413037e-05</v>
+        <v>0.002235371852293611</v>
       </c>
       <c r="D4" t="n">
-        <v>3.047755399165908e-07</v>
+        <v>0.02581699565052986</v>
       </c>
       <c r="E4" t="n">
-        <v>2.047457564913202e-05</v>
+        <v>0.008989805355668068</v>
       </c>
       <c r="F4" t="n">
-        <v>1.46118702559761e-06</v>
+        <v>0.0114672128111124</v>
       </c>
       <c r="G4" t="n">
-        <v>2.035292254731758e-06</v>
+        <v>0.004643128719180822</v>
       </c>
       <c r="H4" t="n">
-        <v>5.059967406850774e-06</v>
+        <v>0.006799532100558281</v>
       </c>
       <c r="I4" t="n">
-        <v>2.468531602062285e-05</v>
+        <v>0.001139899017289281</v>
       </c>
       <c r="J4" t="n">
-        <v>2.559058430051664e-06</v>
+        <v>0.008302351459860802</v>
       </c>
       <c r="K4" t="n">
-        <v>2.206789758929517e-06</v>
+        <v>0.03463602066040039</v>
       </c>
       <c r="L4" t="n">
-        <v>2.687824598979205e-05</v>
+        <v>0.00107538967859</v>
       </c>
       <c r="M4" t="n">
-        <v>3.554137038008776e-07</v>
+        <v>0.02204939723014832</v>
       </c>
       <c r="N4" t="n">
-        <v>1.081934715330135e-05</v>
+        <v>0.01178620848804712</v>
       </c>
       <c r="O4" t="n">
-        <v>2.929675247287378e-06</v>
+        <v>0.01765616238117218</v>
       </c>
       <c r="P4" t="n">
-        <v>9.393836535309674e-07</v>
+        <v>0.003231420880183578</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.648126716550905e-06</v>
+        <v>0.001539836870506406</v>
       </c>
       <c r="R4" t="n">
-        <v>2.59667394857388e-05</v>
+        <v>0.00597356865182519</v>
       </c>
       <c r="S4" t="n">
-        <v>2.162707914976636e-07</v>
+        <v>0.002184184500947595</v>
       </c>
       <c r="T4" t="n">
-        <v>7.241279490699526e-06</v>
+        <v>0.005641472060233355</v>
       </c>
       <c r="U4" t="n">
-        <v>5.836295713379513e-07</v>
+        <v>0.005155724007636309</v>
       </c>
       <c r="V4" t="n">
-        <v>8.75532077770913e-06</v>
+        <v>0.006255543790757656</v>
       </c>
       <c r="W4" t="n">
-        <v>1.169437382486649e-06</v>
+        <v>0.002015113364905119</v>
       </c>
       <c r="X4" t="n">
-        <v>3.593075462049455e-06</v>
+        <v>0.002767334692180157</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.028942165248736e-06</v>
+        <v>0.006936084479093552</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.827428372460417e-06</v>
+        <v>0.004394527524709702</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.128477717633359e-06</v>
+        <v>0.003806289518252015</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.352412937194458e-06</v>
+        <v>0.001797421835362911</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.203229885504697e-06</v>
+        <v>0.005944856442511082</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.308459218307689e-06</v>
+        <v>0.0006334219360724092</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.086408815353934e-06</v>
+        <v>0.002478378359228373</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.45212629326852e-06</v>
+        <v>0.004093112424015999</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.558145517170487e-07</v>
+        <v>0.002307923743501306</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.563352611810842e-07</v>
+        <v>0.001041476614773273</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.727903837600024e-06</v>
+        <v>0.001078561297617853</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.862316356797237e-06</v>
+        <v>0.004716284573078156</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.205653461511247e-07</v>
+        <v>0.004343819804489613</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.646160156582482e-06</v>
+        <v>0.007593864109367132</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.598617811599979e-06</v>
+        <v>0.002778121503069997</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.163629116897937e-06</v>
+        <v>0.002573034726083279</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.580964170803782e-07</v>
+        <v>0.002953008515760303</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.352864380052779e-06</v>
+        <v>0.004303701221942902</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.121206640978926e-07</v>
+        <v>0.001183779095299542</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.420535558187112e-07</v>
+        <v>0.003205565037205815</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.352385983314889e-07</v>
+        <v>0.004852131474763155</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.695494787185453e-06</v>
+        <v>0.006547924131155014</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.244404282071628e-06</v>
+        <v>0.03103922307491302</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.072350980597548e-05</v>
+        <v>0.001257541589438915</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.640058826524182e-07</v>
+        <v>0.008235624060034752</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.684749223495601e-06</v>
+        <v>0.002263382542878389</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.19989936138154e-05</v>
+        <v>0.001777645200490952</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.087837174258311e-06</v>
+        <v>0.0009109304519370198</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.006435912946472e-06</v>
+        <v>0.002589433453977108</v>
       </c>
       <c r="BB4" t="n">
-        <v>7.957823981996626e-06</v>
+        <v>0.006963666994124651</v>
       </c>
       <c r="BC4" t="n">
-        <v>5.05635398440063e-07</v>
+        <v>0.003147943876683712</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.198160020976502e-06</v>
+        <v>0.004453752655535936</v>
       </c>
       <c r="BE4" t="n">
-        <v>6.093248430261156e-06</v>
+        <v>0.006360891275107861</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.355210997644463e-06</v>
+        <v>0.002198715694248676</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.952500719606178e-06</v>
+        <v>0.01514136604964733</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.369427875237307e-06</v>
+        <v>0.002204051706939936</v>
       </c>
       <c r="BI4" t="n">
-        <v>6.247915962376283e-07</v>
+        <v>0.007549438625574112</v>
       </c>
       <c r="BJ4" t="n">
-        <v>5.61715978619759e-06</v>
+        <v>0.004633234348148108</v>
       </c>
       <c r="BK4" t="n">
-        <v>3.103045628449763e-06</v>
+        <v>0.001252005924470723</v>
       </c>
       <c r="BL4" t="n">
-        <v>8.607692052464699e-07</v>
+        <v>0.004916644655168056</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.676075385148579e-07</v>
+        <v>0.0002242594928247854</v>
       </c>
       <c r="BN4" t="n">
-        <v>9.693025276646949e-06</v>
+        <v>0.001074580824933946</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.837383817677619e-06</v>
+        <v>0.00465740030631423</v>
       </c>
       <c r="BP4" t="n">
-        <v>5.433130354504101e-06</v>
+        <v>0.0007952555897645652</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.782961817298201e-06</v>
+        <v>0.0008505336008965969</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.330524466742645e-07</v>
+        <v>0.00221532117575407</v>
       </c>
       <c r="BS4" t="n">
-        <v>4.782890755450353e-06</v>
+        <v>0.001081476453691721</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.082114512333646e-06</v>
+        <v>0.003735349280759692</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.80586653186765e-06</v>
+        <v>0.00427577830851078</v>
       </c>
       <c r="BV4" t="n">
-        <v>5.256126769381808e-06</v>
+        <v>0.01737469993531704</v>
       </c>
       <c r="BW4" t="n">
-        <v>4.366250777820824e-06</v>
+        <v>0.003398976055905223</v>
       </c>
       <c r="BX4" t="n">
-        <v>4.329307103034807e-06</v>
+        <v>0.005822126753628254</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.080876245396212e-05</v>
+        <v>8.280627662315965e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>5.833419891132507e-06</v>
+        <v>0.003874956630170345</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.922434194057132e-07</v>
+        <v>0.002709978492930532</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.73012585946708e-06</v>
+        <v>0.001024740748107433</v>
       </c>
       <c r="CC4" t="n">
-        <v>9.857352779363282e-06</v>
+        <v>0.005596850533038378</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.685458244082838e-07</v>
+        <v>0.002710221335291862</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.06120159116108e-06</v>
+        <v>0.007650014013051987</v>
       </c>
       <c r="CF4" t="n">
-        <v>4.819004061573651e-06</v>
+        <v>0.003907828126102686</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.775265673131798e-06</v>
+        <v>0.002894583623856306</v>
       </c>
       <c r="CH4" t="n">
-        <v>4.282808276911965e-06</v>
+        <v>0.0009857119293883443</v>
       </c>
       <c r="CI4" t="n">
-        <v>7.149335488065844e-07</v>
+        <v>0.003073368454352021</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.228383664260036e-07</v>
+        <v>0.002098542172461748</v>
       </c>
       <c r="CK4" t="n">
-        <v>3.085267508140532e-08</v>
+        <v>0.0001976685598492622</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.783932243095478e-06</v>
+        <v>0.003403858048841357</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.060751742443244e-06</v>
+        <v>0.004978238604962826</v>
       </c>
       <c r="CN4" t="n">
-        <v>9.380935807712376e-06</v>
+        <v>0.0004243415896780789</v>
       </c>
       <c r="CO4" t="n">
-        <v>6.256041160668246e-07</v>
+        <v>0.003697580192238092</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.301631073147291e-06</v>
+        <v>0.006065290421247482</v>
       </c>
       <c r="CQ4" t="n">
-        <v>4.514358806773089e-06</v>
+        <v>0.004239308647811413</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.398025445581879e-07</v>
+        <v>0.003552284790202975</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.21452217172191e-06</v>
+        <v>0.00618482381105423</v>
       </c>
       <c r="CT4" t="n">
-        <v>4.580106633511605e-06</v>
+        <v>0.01124671846628189</v>
       </c>
       <c r="CU4" t="n">
-        <v>7.759609616186935e-06</v>
+        <v>0.0017369429115206</v>
       </c>
       <c r="CV4" t="n">
-        <v>6.161637315926782e-07</v>
+        <v>0.002385082421824336</v>
       </c>
       <c r="CW4" t="n">
-        <v>3.970674697484355e-06</v>
+        <v>0.006785090081393719</v>
       </c>
       <c r="CX4" t="n">
-        <v>4.23787832914968e-06</v>
+        <v>0.00409106258302927</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.13739679363789e-06</v>
+        <v>0.005804404616355896</v>
       </c>
       <c r="CZ4" t="n">
-        <v>6.099552592786495e-06</v>
+        <v>0.0003324461576994509</v>
       </c>
       <c r="DA4" t="n">
-        <v>9.237169820153213e-07</v>
+        <v>0.002990552224218845</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.037067477227538e-06</v>
+        <v>0.001989684998989105</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.938326133516966e-07</v>
+        <v>0.0007548036519438028</v>
       </c>
       <c r="DD4" t="n">
-        <v>4.415584498929093e-06</v>
+        <v>0.002148859668523073</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.659449026192306e-06</v>
+        <v>0.003640533424913883</v>
       </c>
       <c r="DF4" t="n">
-        <v>9.798412065720186e-06</v>
+        <v>0.005158227868378162</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.517552573204739e-05</v>
+        <v>3.928318619728088e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.541750291129574e-06</v>
+        <v>0.01391483470797539</v>
       </c>
       <c r="DI4" t="n">
-        <v>2.598980699985987e-06</v>
+        <v>0.007592982612550259</v>
       </c>
       <c r="DJ4" t="n">
-        <v>9.545942702970933e-07</v>
+        <v>0.003748664865270257</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.030747625918593e-05</v>
+        <v>0.008824423886835575</v>
       </c>
       <c r="DL4" t="n">
-        <v>4.360344973974861e-06</v>
+        <v>0.0006560366600751877</v>
       </c>
       <c r="DM4" t="n">
-        <v>7.685717719141394e-06</v>
+        <v>0.002165603451430798</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.620228769956157e-06</v>
+        <v>0.005979747977107763</v>
       </c>
       <c r="DO4" t="n">
-        <v>5.301042733663053e-07</v>
+        <v>0.003812231589108706</v>
       </c>
       <c r="DP4" t="n">
-        <v>6.00012555196372e-08</v>
+        <v>0.0001084150280803442</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.245910193072632e-06</v>
+        <v>0.001440369989722967</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.198869313157047e-06</v>
+        <v>0.004874043166637421</v>
       </c>
       <c r="DS4" t="n">
-        <v>5.683200924977427e-06</v>
+        <v>0.001711620832793415</v>
       </c>
       <c r="DT4" t="n">
-        <v>4.109204382984899e-06</v>
+        <v>0.001042337738908827</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.497803282290988e-06</v>
+        <v>0.001470115035772324</v>
       </c>
       <c r="DV4" t="n">
-        <v>9.921870969265001e-07</v>
+        <v>0.00699614267796278</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.218440274897148e-06</v>
+        <v>0.002618007594719529</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.573130134602252e-06</v>
+        <v>0.0008833631873130798</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.367129920661682e-06</v>
+        <v>0.01144557073712349</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.932842224050546e-06</v>
+        <v>0.0008026349823921919</v>
       </c>
       <c r="EA4" t="n">
-        <v>3.535265477694338e-06</v>
+        <v>0.006653034593909979</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.676184865573305e-06</v>
+        <v>0.0009674380999058485</v>
       </c>
       <c r="EC4" t="n">
-        <v>9.623082632970181e-07</v>
+        <v>0.001084696734324098</v>
       </c>
       <c r="ED4" t="n">
-        <v>7.771047876303783e-07</v>
+        <v>0.0001641431590542197</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.528938469164132e-06</v>
+        <v>0.0005723890499211848</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.926150782262994e-07</v>
+        <v>0.00219225394539535</v>
       </c>
       <c r="EG4" t="n">
-        <v>6.045580448699184e-06</v>
+        <v>0.004722834564745426</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.084958163730334e-06</v>
+        <v>0.002031505107879639</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.492892124588252e-06</v>
+        <v>0.003323489334434271</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.404915903753135e-06</v>
+        <v>0.00282976939342916</v>
       </c>
       <c r="EK4" t="n">
-        <v>6.856138043076498e-06</v>
+        <v>0.001149620045907795</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.403654889349127e-06</v>
+        <v>0.002035826677456498</v>
       </c>
       <c r="EM4" t="n">
-        <v>3.313781917313463e-06</v>
+        <v>0.00215771165676415</v>
       </c>
       <c r="EN4" t="n">
-        <v>2.5959222966776e-06</v>
+        <v>0.00064292480237782</v>
       </c>
       <c r="EO4" t="n">
-        <v>2.237913577118888e-06</v>
+        <v>0.001774827018380165</v>
       </c>
       <c r="EP4" t="n">
-        <v>5.624607183563057e-06</v>
+        <v>0.004146608989685774</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.259430291611352e-06</v>
+        <v>0.003120702691376209</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.981822717629257e-06</v>
+        <v>0.00688549317419529</v>
       </c>
       <c r="ES4" t="n">
-        <v>3.498929800116457e-06</v>
+        <v>0.003455298254266381</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.548533984736423e-06</v>
+        <v>0.01295668818056583</v>
       </c>
       <c r="EU4" t="n">
-        <v>5.290929948387202e-06</v>
+        <v>0.004046590998768806</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.622624949959572e-06</v>
+        <v>0.005377890076488256</v>
       </c>
       <c r="EW4" t="n">
-        <v>4.326711405155947e-06</v>
+        <v>0.003759447718039155</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.737776583217055e-08</v>
+        <v>0.00214856956154108</v>
       </c>
       <c r="EY4" t="n">
-        <v>4.142063062317902e-06</v>
+        <v>0.006179482210427523</v>
       </c>
       <c r="EZ4" t="n">
-        <v>4.340520263212966e-06</v>
+        <v>0.003189742099493742</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.946929160112632e-06</v>
+        <v>0.004607896320521832</v>
       </c>
       <c r="FB4" t="n">
-        <v>3.295323494967306e-06</v>
+        <v>0.001370148500427604</v>
       </c>
       <c r="FC4" t="n">
-        <v>6.716787481764186e-08</v>
+        <v>0.003168942406773567</v>
       </c>
       <c r="FD4" t="n">
-        <v>5.084232839180913e-07</v>
+        <v>0.003361370181664824</v>
       </c>
       <c r="FE4" t="n">
-        <v>5.892869694434921e-07</v>
+        <v>0.0002927923342213035</v>
       </c>
       <c r="FF4" t="n">
-        <v>5.252342816675082e-06</v>
+        <v>0.00264609488658607</v>
       </c>
       <c r="FG4" t="n">
-        <v>6.250162414289662e-07</v>
+        <v>0.0005880799726583064</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.363542878607404e-06</v>
+        <v>0.005545731633901596</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.209697757076356e-06</v>
+        <v>0.004897492006421089</v>
       </c>
       <c r="FJ4" t="n">
-        <v>5.616462658508681e-06</v>
+        <v>0.004002015106379986</v>
       </c>
       <c r="FK4" t="n">
-        <v>2.427226490908652e-06</v>
+        <v>0.000284968817140907</v>
       </c>
       <c r="FL4" t="n">
-        <v>2.684259925445076e-07</v>
+        <v>0.001169955474324524</v>
       </c>
       <c r="FM4" t="n">
-        <v>6.83617827235139e-07</v>
+        <v>0.000650618108920753</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.849862201197539e-06</v>
+        <v>0.003215119941160083</v>
       </c>
       <c r="FO4" t="n">
-        <v>6.02514592173975e-06</v>
+        <v>0.005063620395958424</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.092717411665944e-06</v>
+        <v>0.004542904905974865</v>
       </c>
       <c r="FQ4" t="n">
-        <v>6.390761427610414e-06</v>
+        <v>0.0003836361865978688</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.453409709029074e-06</v>
+        <v>0.005101622082293034</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.650599756430893e-06</v>
+        <v>0.004381889943033457</v>
       </c>
       <c r="FT4" t="n">
-        <v>7.159310371207539e-07</v>
+        <v>0.01098454743623734</v>
       </c>
       <c r="FU4" t="n">
-        <v>1.273097041121218e-07</v>
+        <v>0.001828259089961648</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.066367071369314e-06</v>
+        <v>0.002837635343894362</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.719774900266202e-07</v>
+        <v>0.002650953596457839</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.277317551284796e-06</v>
+        <v>0.004760940093547106</v>
       </c>
       <c r="FY4" t="n">
-        <v>6.852628757769708e-07</v>
+        <v>0.004001603927463293</v>
       </c>
       <c r="FZ4" t="n">
-        <v>9.960980378309614e-07</v>
+        <v>0.002031031530350447</v>
       </c>
       <c r="GA4" t="n">
-        <v>2.196235072915442e-06</v>
+        <v>0.004545771516859531</v>
       </c>
       <c r="GB4" t="n">
-        <v>2.855650791389053e-06</v>
+        <v>0.0007912101573310792</v>
       </c>
       <c r="GC4" t="n">
-        <v>2.134664100594819e-06</v>
+        <v>0.0101423179730773</v>
       </c>
       <c r="GD4" t="n">
-        <v>8.915048965718597e-06</v>
+        <v>0.002586865797638893</v>
       </c>
       <c r="GE4" t="n">
-        <v>9.076067044588854e-07</v>
+        <v>0.01820886321365833</v>
       </c>
       <c r="GF4" t="n">
-        <v>4.631776391761377e-06</v>
+        <v>0.00366936856880784</v>
       </c>
       <c r="GG4" t="n">
-        <v>7.223484317364637e-07</v>
+        <v>0.004687448497861624</v>
       </c>
     </row>
     <row r="5">
@@ -3280,1709 +3280,1709 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.267273562812534e-09</v>
+        <v>1.715764170739931e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>4.530379626999093e-09</v>
+        <v>2.170964762626681e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>4.135459974463629e-08</v>
+        <v>1.777578972905758e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>8.925315597707595e-09</v>
+        <v>9.444385113965836e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>3.907644341438754e-08</v>
+        <v>4.769136197069201e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>1.522937331799312e-08</v>
+        <v>1.827729931846989e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>5.04702057924078e-10</v>
+        <v>3.730194819695498e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>1.389120818373613e-08</v>
+        <v>2.939415999492212e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>6.066753144295944e-08</v>
+        <v>3.157243355644823e-08</v>
       </c>
       <c r="J6" t="n">
-        <v>6.678262831627535e-09</v>
+        <v>2.982013427299535e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>3.508133783469702e-09</v>
+        <v>1.43648253470019e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>3.987396013371836e-08</v>
+        <v>1.153574746837194e-08</v>
       </c>
       <c r="M6" t="n">
-        <v>8.358378988937432e-10</v>
+        <v>9.499015050096205e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.627251305398204e-08</v>
+        <v>2.525366369354742e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>2.254855324679284e-08</v>
+        <v>4.684317218561773e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>3.28250759906723e-10</v>
+        <v>1.019764468424e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.441192468287227e-09</v>
+        <v>2.626769912694726e-07</v>
       </c>
       <c r="R6" t="n">
-        <v>5.252681845036022e-08</v>
+        <v>1.072573141414068e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>9.827379798821312e-09</v>
+        <v>6.457707257823131e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>4.793587748963546e-10</v>
+        <v>2.464947215230495e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>4.883724535886813e-09</v>
+        <v>8.341644530673875e-08</v>
       </c>
       <c r="V6" t="n">
-        <v>2.394917331116631e-08</v>
+        <v>1.86618777320291e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.422890332809402e-09</v>
+        <v>1.707711483334151e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>7.999563678140476e-09</v>
+        <v>2.435817236801086e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.267706206675712e-08</v>
+        <v>2.419311897483567e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.453927644945452e-09</v>
+        <v>9.989582849811995e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.615247935404795e-09</v>
+        <v>1.171430952240371e-07</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.600349321596923e-10</v>
+        <v>9.505270526233289e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.286001218493766e-09</v>
+        <v>2.50459294193206e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.791879616381721e-09</v>
+        <v>5.272912417808584e-08</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.261321536105697e-08</v>
+        <v>5.785082990428236e-08</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.054462828165015e-08</v>
+        <v>4.846342349651422e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.128890669832572e-08</v>
+        <v>8.860241962338478e-08</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.699361261766398e-09</v>
+        <v>4.276148501958232e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.42966020636004e-08</v>
+        <v>1.066249097902983e-07</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.641346305182651e-09</v>
+        <v>4.974732092932754e-08</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.15450016213714e-09</v>
+        <v>2.467179456289159e-07</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.216007294857491e-08</v>
+        <v>1.360296266739169e-07</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.59317509079915e-09</v>
+        <v>8.097726578171205e-08</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.695776573664489e-09</v>
+        <v>3.307288443110679e-09</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.880777085413683e-09</v>
+        <v>3.663198100412046e-08</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.767339341540719e-08</v>
+        <v>1.287024673501946e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.920728630646408e-09</v>
+        <v>1.095669404094224e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.398009124604528e-09</v>
+        <v>1.438557575283994e-07</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.728359287968885e-10</v>
+        <v>5.624928434144749e-08</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.743967192879836e-10</v>
+        <v>5.075532172327257e-08</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.044674391437184e-08</v>
+        <v>1.343997382718953e-06</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.606793181314515e-08</v>
+        <v>1.99255971722323e-08</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.931249186768127e-09</v>
+        <v>3.097034664278908e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.941530847204831e-08</v>
+        <v>1.685252328798015e-07</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.50776120477758e-08</v>
+        <v>7.495498266507639e-08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.102325202812949e-09</v>
+        <v>1.972487666535017e-07</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.923842501445506e-08</v>
+        <v>8.957897534855874e-08</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.061765869143528e-08</v>
+        <v>1.636455948528237e-08</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.31927246904695e-09</v>
+        <v>4.934906883136136e-08</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.326853263516341e-09</v>
+        <v>7.43281134418794e-07</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.27803873542598e-08</v>
+        <v>4.456001931885112e-07</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.555714472331829e-09</v>
+        <v>1.88651071653112e-07</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.313073094699746e-09</v>
+        <v>1.878450461845205e-07</v>
       </c>
       <c r="BH6" t="n">
-        <v>4.425095845306259e-09</v>
+        <v>2.776483540856134e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.392256976373574e-09</v>
+        <v>1.821715898131515e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>7.37013161611344e-09</v>
+        <v>2.336766726784845e-07</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.332471555315351e-08</v>
+        <v>5.663174107439772e-08</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.565238770875112e-09</v>
+        <v>3.468613556378841e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.33156779730848e-09</v>
+        <v>3.138419799597614e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.500555495998924e-08</v>
+        <v>3.016182290593861e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.57984938861955e-09</v>
+        <v>5.96936367003309e-09</v>
       </c>
       <c r="BP6" t="n">
-        <v>6.742404856652229e-09</v>
+        <v>3.23010709735172e-07</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.037516916824188e-08</v>
+        <v>1.286358894958539e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.438415497823087e-10</v>
+        <v>2.057674493016748e-07</v>
       </c>
       <c r="BS6" t="n">
-        <v>3.458964670244313e-09</v>
+        <v>1.394223136941264e-08</v>
       </c>
       <c r="BT6" t="n">
-        <v>6.721688539101933e-09</v>
+        <v>3.392333169927042e-08</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.054960728832157e-09</v>
+        <v>6.744553360249483e-08</v>
       </c>
       <c r="BV6" t="n">
-        <v>3.778373613982922e-09</v>
+        <v>6.85454324411694e-07</v>
       </c>
       <c r="BW6" t="n">
-        <v>5.262160929220272e-09</v>
+        <v>1.397399529423637e-07</v>
       </c>
       <c r="BX6" t="n">
-        <v>7.996032724832958e-10</v>
+        <v>1.297206750905389e-07</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.976926793962775e-08</v>
+        <v>1.23266460150262e-07</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.158855855720731e-08</v>
+        <v>3.190131394603668e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>6.857546530625314e-09</v>
+        <v>6.133038965572268e-08</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.946973782196437e-08</v>
+        <v>1.253630870223787e-07</v>
       </c>
       <c r="CC6" t="n">
-        <v>3.246156410341428e-08</v>
+        <v>8.056645128817763e-08</v>
       </c>
       <c r="CD6" t="n">
-        <v>5.523209889446434e-09</v>
+        <v>4.523210606066641e-08</v>
       </c>
       <c r="CE6" t="n">
-        <v>8.701276144051917e-09</v>
+        <v>3.488260631456797e-07</v>
       </c>
       <c r="CF6" t="n">
-        <v>6.238151328830099e-09</v>
+        <v>1.245680749661915e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>9.728178262946585e-10</v>
+        <v>8.183238264791726e-08</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.327987142474285e-08</v>
+        <v>9.853289384409436e-08</v>
       </c>
       <c r="CI6" t="n">
-        <v>8.957493413674911e-09</v>
+        <v>6.093241466942345e-08</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.745124794145681e-09</v>
+        <v>5.009257719734705e-08</v>
       </c>
       <c r="CK6" t="n">
-        <v>6.650299200217091e-10</v>
+        <v>4.322449598248568e-08</v>
       </c>
       <c r="CL6" t="n">
-        <v>9.159657921031794e-09</v>
+        <v>2.539811561064198e-08</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.431085916436814e-08</v>
+        <v>2.895702664318378e-07</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.459006592265723e-08</v>
+        <v>3.85799125979247e-07</v>
       </c>
       <c r="CO6" t="n">
-        <v>9.053654714819004e-09</v>
+        <v>3.988582353287029e-09</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.233768725545815e-12</v>
+        <v>2.291413210286919e-07</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.965646572761216e-08</v>
+        <v>3.344106289659976e-07</v>
       </c>
       <c r="CR6" t="n">
-        <v>4.011875720522085e-09</v>
+        <v>1.913251708174357e-07</v>
       </c>
       <c r="CS6" t="n">
-        <v>7.482438668660052e-09</v>
+        <v>1.133457772084512e-07</v>
       </c>
       <c r="CT6" t="n">
-        <v>3.604714082783289e-09</v>
+        <v>4.162189384260273e-07</v>
       </c>
       <c r="CU6" t="n">
-        <v>3.536061665698753e-09</v>
+        <v>9.443976978218416e-08</v>
       </c>
       <c r="CV6" t="n">
-        <v>4.86785722841887e-09</v>
+        <v>3.250218583161768e-08</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.10771916084218e-08</v>
+        <v>2.929139100160683e-07</v>
       </c>
       <c r="CX6" t="n">
-        <v>9.642698195477806e-09</v>
+        <v>1.460499703398455e-07</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.194459531284053e-10</v>
+        <v>1.509960441126168e-07</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.372915026109922e-08</v>
+        <v>1.162916518637758e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.028664176061511e-08</v>
+        <v>5.013554726929215e-08</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.64908842137379e-09</v>
+        <v>2.506234864085854e-08</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.975865471237626e-09</v>
+        <v>2.288545886131033e-08</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.160239193609414e-08</v>
+        <v>4.379874241067228e-09</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.814568406643957e-08</v>
+        <v>9.263456490771205e-08</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.09397920009269e-08</v>
+        <v>3.778061739012628e-07</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.06751566370167e-08</v>
+        <v>5.250245749266469e-08</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.463222958937195e-09</v>
+        <v>7.570123443656485e-07</v>
       </c>
       <c r="DI6" t="n">
-        <v>8.976395626802969e-09</v>
+        <v>2.585739480309712e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.074635491704612e-08</v>
+        <v>1.507618776486197e-07</v>
       </c>
       <c r="DK6" t="n">
-        <v>2.153840661378581e-09</v>
+        <v>1.197184644752269e-07</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.320800773780718e-10</v>
+        <v>8.111241811548098e-08</v>
       </c>
       <c r="DM6" t="n">
-        <v>4.836093747684345e-09</v>
+        <v>1.163423988259638e-07</v>
       </c>
       <c r="DN6" t="n">
-        <v>8.88131790333091e-11</v>
+        <v>1.079583711316445e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>6.132416796589268e-09</v>
+        <v>2.069023423700855e-07</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.804245807259576e-10</v>
+        <v>2.307945976554038e-07</v>
       </c>
       <c r="DQ6" t="n">
-        <v>2.490103012675604e-09</v>
+        <v>1.997825904709316e-09</v>
       </c>
       <c r="DR6" t="n">
-        <v>8.056222355889986e-09</v>
+        <v>1.637003776977508e-07</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.756368939176411e-09</v>
+        <v>2.14781366025818e-07</v>
       </c>
       <c r="DT6" t="n">
-        <v>5.712086359466184e-09</v>
+        <v>1.211120803645827e-07</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.446690056639e-08</v>
+        <v>3.824892402803926e-08</v>
       </c>
       <c r="DV6" t="n">
-        <v>3.114051239094806e-09</v>
+        <v>1.643311620114218e-08</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.355265677460693e-09</v>
+        <v>1.557701523324795e-09</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.147848927018913e-09</v>
+        <v>5.173027872729108e-08</v>
       </c>
       <c r="DY6" t="n">
-        <v>5.587650342420147e-10</v>
+        <v>6.95390411920016e-08</v>
       </c>
       <c r="DZ6" t="n">
-        <v>3.772766543619355e-10</v>
+        <v>2.472342330861466e-09</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.475013555740645e-09</v>
+        <v>2.480929879311589e-07</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.942591142447327e-09</v>
+        <v>2.197858250951867e-08</v>
       </c>
       <c r="EC6" t="n">
-        <v>9.336053041764103e-10</v>
+        <v>3.671388526527153e-08</v>
       </c>
       <c r="ED6" t="n">
-        <v>6.39009112290978e-09</v>
+        <v>4.016056465161455e-08</v>
       </c>
       <c r="EE6" t="n">
-        <v>5.486508136698376e-09</v>
+        <v>4.900132211105301e-08</v>
       </c>
       <c r="EF6" t="n">
-        <v>8.189902978017471e-09</v>
+        <v>5.824291093858847e-08</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.080687894727816e-08</v>
+        <v>2.188971848227084e-07</v>
       </c>
       <c r="EH6" t="n">
-        <v>5.417236437210704e-09</v>
+        <v>1.711346797605984e-08</v>
       </c>
       <c r="EI6" t="n">
-        <v>7.877665186839522e-10</v>
+        <v>1.591168938830378e-07</v>
       </c>
       <c r="EJ6" t="n">
-        <v>6.49165166066723e-09</v>
+        <v>4.079986481997366e-08</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.81529440368422e-08</v>
+        <v>3.218895727741256e-08</v>
       </c>
       <c r="EL6" t="n">
-        <v>6.301962507393455e-09</v>
+        <v>6.050338186014415e-08</v>
       </c>
       <c r="EM6" t="n">
-        <v>5.734126506951043e-09</v>
+        <v>2.428967960099726e-08</v>
       </c>
       <c r="EN6" t="n">
-        <v>7.389837186622117e-09</v>
+        <v>2.643924190692815e-09</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.651585173651938e-09</v>
+        <v>1.129449600512089e-07</v>
       </c>
       <c r="EP6" t="n">
-        <v>5.826922055973682e-09</v>
+        <v>1.796784658836259e-07</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1.938255245192977e-08</v>
+        <v>1.49514463032574e-07</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.04068558215431e-08</v>
+        <v>7.556725734048086e-08</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.330200838367546e-08</v>
+        <v>8.739973367255516e-08</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.133401994479755e-08</v>
+        <v>3.113987361302861e-07</v>
       </c>
       <c r="EU6" t="n">
-        <v>5.611606290756299e-09</v>
+        <v>2.079726257875336e-08</v>
       </c>
       <c r="EV6" t="n">
-        <v>3.843427798244647e-10</v>
+        <v>1.495782129268264e-07</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.136611693652867e-09</v>
+        <v>1.450985109840985e-08</v>
       </c>
       <c r="EX6" t="n">
-        <v>5.558331572785846e-09</v>
+        <v>1.242964664527335e-08</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.053482989732402e-08</v>
+        <v>2.941267496225919e-07</v>
       </c>
       <c r="EZ6" t="n">
-        <v>8.798725303904575e-09</v>
+        <v>1.011251029581217e-07</v>
       </c>
       <c r="FA6" t="n">
-        <v>4.033919864809832e-09</v>
+        <v>1.023378857212265e-07</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.010968997405826e-08</v>
+        <v>3.993591235484928e-08</v>
       </c>
       <c r="FC6" t="n">
-        <v>7.820047720485945e-09</v>
+        <v>9.579905224654794e-08</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.124309173012762e-09</v>
+        <v>5.011944637089982e-08</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.845988695237111e-09</v>
+        <v>2.167743495817831e-08</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.278098160639729e-08</v>
+        <v>2.057522152654201e-08</v>
       </c>
       <c r="FG6" t="n">
-        <v>8.835033149523497e-09</v>
+        <v>6.037480915210836e-08</v>
       </c>
       <c r="FH6" t="n">
-        <v>7.925169853706393e-09</v>
+        <v>1.013855452924872e-07</v>
       </c>
       <c r="FI6" t="n">
-        <v>6.755513481948583e-09</v>
+        <v>3.05370662090354e-08</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.147517192379155e-09</v>
+        <v>1.914944505188032e-07</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.477529742999195e-08</v>
+        <v>6.731120549829939e-08</v>
       </c>
       <c r="FL6" t="n">
-        <v>5.709889006055846e-09</v>
+        <v>1.032567382708294e-07</v>
       </c>
       <c r="FM6" t="n">
-        <v>7.229285170495814e-09</v>
+        <v>2.117868405093759e-07</v>
       </c>
       <c r="FN6" t="n">
-        <v>3.618775945568586e-09</v>
+        <v>2.976429591683427e-08</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.270061300573389e-08</v>
+        <v>2.045468505684767e-08</v>
       </c>
       <c r="FP6" t="n">
-        <v>2.604823023943936e-10</v>
+        <v>1.158459070893514e-07</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.211456712724157e-08</v>
+        <v>9.823245505913292e-08</v>
       </c>
       <c r="FR6" t="n">
-        <v>7.156313763800881e-09</v>
+        <v>6.281229758542395e-08</v>
       </c>
       <c r="FS6" t="n">
-        <v>4.72862327072221e-09</v>
+        <v>1.905019075820746e-07</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.357919110489547e-08</v>
+        <v>2.695864154134142e-08</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.234049040732543e-08</v>
+        <v>5.074917908132193e-08</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.312942282145514e-09</v>
+        <v>4.59751277048781e-08</v>
       </c>
       <c r="FW6" t="n">
-        <v>9.153524160865345e-09</v>
+        <v>5.040763539909676e-08</v>
       </c>
       <c r="FX6" t="n">
-        <v>9.211230000971682e-09</v>
+        <v>7.865138229590229e-08</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.282590977869091e-10</v>
+        <v>1.188688898423607e-07</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2.819153799293872e-09</v>
+        <v>1.136811675905847e-07</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.235197011340006e-08</v>
+        <v>1.7017343623138e-07</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.222306865779956e-09</v>
+        <v>4.207347714668686e-08</v>
       </c>
       <c r="GC6" t="n">
-        <v>5.061547625473395e-09</v>
+        <v>1.148156201224992e-07</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.155654594242606e-08</v>
+        <v>2.640979346324457e-07</v>
       </c>
       <c r="GE6" t="n">
-        <v>7.052110007066403e-09</v>
+        <v>2.28638043608953e-07</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.375574210094044e-09</v>
+        <v>4.942754827652607e-08</v>
       </c>
       <c r="GG6" t="n">
-        <v>4.126225583434007e-09</v>
+        <v>5.33923305567896e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.009851988404989243</v>
+        <v>0.001274619135074317</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01116036996245384</v>
+        <v>0.008648223243653774</v>
       </c>
       <c r="C7" t="n">
-        <v>2.554035745561123e-05</v>
+        <v>0.0003574918955564499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02272234484553337</v>
+        <v>0.004000662826001644</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02835599146783352</v>
+        <v>1.402980342390947e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004177173133939505</v>
+        <v>0.003833565395325422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01579268090426922</v>
+        <v>0.0003521395847201347</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004173050634562969</v>
+        <v>0.0009861703729256988</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02515310235321522</v>
+        <v>0.0002552771475166082</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008668202906847</v>
+        <v>0.002371095353737473</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007206321693956852</v>
+        <v>0.00587619049474597</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006903414614498615</v>
+        <v>0.0003671037266030908</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01261004246771336</v>
+        <v>0.004107219167053699</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03670242801308632</v>
+        <v>0.0008269344107247889</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009912294335663319</v>
+        <v>0.004759902600198984</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002428154461085796</v>
+        <v>0.0002724344667512923</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003996351442765445</v>
+        <v>4.768863436765969e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02490773238241673</v>
+        <v>0.0002286279632244259</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004465743433684111</v>
+        <v>0.0004243828007020056</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00187115406151861</v>
+        <v>0.0007964905817061663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003776468802243471</v>
+        <v>0.0004678988188970834</v>
       </c>
       <c r="V7" t="n">
-        <v>0.009726816788315773</v>
+        <v>0.001294960267841816</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02640101127326488</v>
+        <v>0.0006126515800133348</v>
       </c>
       <c r="X7" t="n">
-        <v>0.009160826914012432</v>
+        <v>8.688405068824068e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005509000737220049</v>
+        <v>0.0006466277991421521</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001103165559470654</v>
+        <v>0.000340486818458885</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001345298485830426</v>
+        <v>0.0006350333569571376</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0004854603321291506</v>
+        <v>0.0004111782182008028</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.004368385300040245</v>
+        <v>0.001500144484452903</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003070332808420062</v>
+        <v>4.953647294314578e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.008755442686378956</v>
+        <v>8.754195732763037e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.009645363315939903</v>
+        <v>0.0005981723661534488</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00709665659815073</v>
+        <v>7.784110493957996e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.009223908185958862</v>
+        <v>0.0006025226321071386</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.004971666727215052</v>
+        <v>0.0003595562884584069</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01946482993662357</v>
+        <v>0.0003030186053365469</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.001001001102849841</v>
+        <v>0.0008497777744196355</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.006563528440892696</v>
+        <v>0.0009146069642156363</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.005290528293699026</v>
+        <v>7.844164792913944e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.005442848429083824</v>
+        <v>0.0006440500728785992</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.953439252451062e-05</v>
+        <v>0.0005459262174554169</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01634385995566845</v>
+        <v>0.001341351307928562</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0043605319224298</v>
+        <v>0.0001132009638240561</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01095726620405912</v>
+        <v>0.000193337255041115</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.004442207049578428</v>
+        <v>0.0005297574098221958</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.00583617715165019</v>
+        <v>0.0001969610748346895</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0003319330280646682</v>
+        <v>0.005862730089575052</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001795721706002951</v>
+        <v>0.0005048141465522349</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.01525059808045626</v>
+        <v>0.0006664652028121054</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.007948840968310833</v>
+        <v>0.0007325788610614836</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.02744393981993198</v>
+        <v>0.001741199870593846</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.001759289065375924</v>
+        <v>2.168835635529831e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.002880791900679469</v>
+        <v>0.0001395284925820306</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01013771072030067</v>
+        <v>0.001003254787065089</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.831861588172615e-06</v>
+        <v>0.0002113991067744792</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.01271487306803465</v>
+        <v>0.001624403987079859</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.001143350498750806</v>
+        <v>0.00182829424738884</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.00119883322622627</v>
+        <v>0.001620904076844454</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.007772959768772125</v>
+        <v>0.001264213817194104</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.005637537222355604</v>
+        <v>0.001236097887158394</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0117755951359868</v>
+        <v>0.0005286131636239588</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.00653778575360775</v>
+        <v>0.001037435606122017</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.003085858654230833</v>
+        <v>0.0002344836248084903</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.001824619714170694</v>
+        <v>0.0007215074147097766</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.007768183946609497</v>
+        <v>0.001261322293430567</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.004297661129385233</v>
+        <v>0.0005117658874951303</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.006240637041628361</v>
+        <v>0.0009536703582853079</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.002250728663057089</v>
+        <v>0.0009692044113762677</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.006965083070099354</v>
+        <v>0.0002154465764760971</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.004631445743143559</v>
+        <v>0.0004554920888040215</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.008638998493552208</v>
+        <v>0.0006054490804672241</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.005998130887746811</v>
+        <v>0.0003359392576385289</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.002003354951739311</v>
+        <v>0.0002905433939304203</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.001129147945903242</v>
+        <v>0.002761810552328825</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.006469573825597763</v>
+        <v>0.00038606469752267</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.01050865650177002</v>
+        <v>0.0006183668738231063</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01083906181156635</v>
+        <v>0.0004009872791357338</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.006501447409391403</v>
+        <v>0.0003637380432337523</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.002106945030391216</v>
+        <v>0.0002918447135016322</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.009325744584202766</v>
+        <v>2.475499059073627e-05</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.02003198303282261</v>
+        <v>0.0006302893743850291</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.002778640249744058</v>
+        <v>0.0004928690032102168</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0009764181450009346</v>
+        <v>0.001522589707747102</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0009682734962552786</v>
+        <v>0.0006662448868155479</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.004508848302066326</v>
+        <v>0.000360464007826522</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.004500079434365034</v>
+        <v>0.000426554266596213</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.005727721843868494</v>
+        <v>0.0006360559491440654</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0003382380236871541</v>
+        <v>0.0002630181552376598</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.002982538426294923</v>
+        <v>0.0003283199912402779</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.002616210374981165</v>
+        <v>0.0003664926334749907</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.001524609397165477</v>
+        <v>0.0008203026372939348</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.007313848938792944</v>
+        <v>0.0001972869940800592</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.001571608474478126</v>
+        <v>0.0006731631001457572</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.001967865973711014</v>
+        <v>0.0006348605384118855</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.003531211288645864</v>
+        <v>0.0004035474266856909</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.009148485958576202</v>
+        <v>0.001196202007122338</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.001891900785267353</v>
+        <v>0.0007029476691968739</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.006815135944634676</v>
+        <v>0.0007899240590631962</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.002420819597318769</v>
+        <v>0.0003663156530819833</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.003562131896615028</v>
+        <v>0.0003977347805630416</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.002170352963730693</v>
+        <v>0.001151865464635193</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0003122779307886958</v>
+        <v>0.0007158964872360229</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.002887551207095385</v>
+        <v>0.0007955031469464302</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.007327046245336533</v>
+        <v>0.0003825993626378477</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.007398117333650589</v>
+        <v>0.0006264019757509232</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.001706424169242382</v>
+        <v>0.0003056378627661616</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.002263547154143453</v>
+        <v>0.0005783392698504031</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.004935113247483969</v>
+        <v>0.0001711437071207911</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.005193083547055721</v>
+        <v>0.0007822696352377534</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.00196016114205122</v>
+        <v>0.0009705488919280469</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.004474863409996033</v>
+        <v>0.0002528569602873176</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.01724984124302864</v>
+        <v>0.001944590942002833</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.001016558846458793</v>
+        <v>0.0007297383854165673</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0002396174240857363</v>
+        <v>8.035288192331791e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.01209875196218491</v>
+        <v>0.0007687965407967567</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.00246330932714045</v>
+        <v>2.797594061121345e-05</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.003795601893216372</v>
+        <v>0.000266840128460899</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001395526458509266</v>
+        <v>0.0007120574591681361</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0002755913301371038</v>
+        <v>0.0004990482120774686</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.004012868274003267</v>
+        <v>0.001037551905028522</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.001925366697832942</v>
+        <v>0.0005778908962383866</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0006212909356690943</v>
+        <v>9.549691458232701e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0006660135113634169</v>
+        <v>0.0009292842587456107</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.003483725478872657</v>
+        <v>6.16451507085003e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.004950394853949547</v>
+        <v>0.0001485116663388908</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.007151281926780939</v>
+        <v>0.000577739265281707</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.001075007021427155</v>
+        <v>0.0003693390754051507</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0008444978157058358</v>
+        <v>0.0002059006073977798</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.003259791294112802</v>
+        <v>0.001409413758665323</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.005981971509754658</v>
+        <v>0.0001140050080721267</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.003801340004429221</v>
+        <v>0.0004595008213073015</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0003229503345210105</v>
+        <v>0.0002980166464112699</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.001178600126877427</v>
+        <v>0.0001010359410429373</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.005815985146909952</v>
+        <v>1.553264155518264e-05</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.01216470822691917</v>
+        <v>7.521120278397575e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.002959931502118707</v>
+        <v>4.793264088220894e-05</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.00346643733792007</v>
+        <v>0.000744546705391258</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0009142642375081778</v>
+        <v>0.0001276418915949762</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.003922021947801113</v>
+        <v>0.000352362374542281</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.008259652182459831</v>
+        <v>0.0001748225331539288</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.002645305125042796</v>
+        <v>0.00047943732351996</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.007111477665603161</v>
+        <v>0.0002420287346467376</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.002977950964123011</v>
+        <v>0.0001346099306829274</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.002985425293445587</v>
+        <v>0.0001832874113461003</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.001742749474942684</v>
+        <v>0.0005347867263481021</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.002561623230576515</v>
+        <v>0.000905183725990355</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.007302506361156702</v>
+        <v>0.0001318165741395205</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.00662864837795496</v>
+        <v>0.0008186554186977446</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.001593957887962461</v>
+        <v>0.0004666580935008824</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.01554352138191462</v>
+        <v>0.001948699005879462</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.005082607734948397</v>
+        <v>0.0005787221016362309</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.008540729060769081</v>
+        <v>0.001478765509091318</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.002886634087190032</v>
+        <v>2.057491656159982e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.003348944941535592</v>
+        <v>0.0003685686970129609</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.002956745680421591</v>
+        <v>0.001123024150729179</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001155606005340815</v>
+        <v>0.0003995911392848939</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001512510702013969</v>
+        <v>0.0004739156574942172</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.006179456599056721</v>
+        <v>0.0003599037590902299</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.004630500450730324</v>
+        <v>0.0006508997175842524</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.002161242300644517</v>
+        <v>0.0004170291940681636</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0008745961240492761</v>
+        <v>0.0003821807913482189</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.006532286759465933</v>
+        <v>0.0003895609988830984</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0006954707205295563</v>
+        <v>7.44037824915722e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0005253028939478099</v>
+        <v>0.0006623876397497952</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.005632044281810522</v>
+        <v>0.0006374089862219989</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.004840193316340446</v>
+        <v>0.0006369061302393675</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.008084497414529324</v>
+        <v>0.0001893826702143997</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.001502534607425332</v>
+        <v>1.685023016761988e-05</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.001646461198106408</v>
+        <v>0.0002299842017237097</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.01909630931913853</v>
+        <v>0.0003059088485315442</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.004679734352976084</v>
+        <v>7.303458551177755e-05</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.002349553862586617</v>
+        <v>0.0009452967788092792</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.001205577747896314</v>
+        <v>0.0006527621299028397</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.00402064947411418</v>
+        <v>0.0002185313787776977</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.009900421835482121</v>
+        <v>0.0002458540257066488</v>
       </c>
       <c r="FT7" t="n">
-        <v>5.157914711162448e-05</v>
+        <v>0.001823091297410429</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.001287291408516467</v>
+        <v>0.0006669425638392568</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.001343580195680261</v>
+        <v>0.0002636504650581628</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.007290322799235582</v>
+        <v>0.0001265401660930365</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.008845455013215542</v>
+        <v>2.423143450869247e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.00218249368481338</v>
+        <v>0.00093322794418782</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.00834403932094574</v>
+        <v>0.0005777275655418634</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0008589538629166782</v>
+        <v>0.0006469868822023273</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.006526535842567682</v>
+        <v>0.0003830748610198498</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.003548768814653158</v>
+        <v>0.0006380807608366013</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0006268296274356544</v>
+        <v>0.0007918037008494139</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.001395246596075594</v>
+        <v>0.00228847423568368</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.00935712642967701</v>
+        <v>6.844368181191385e-05</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.004102721810340881</v>
+        <v>0.0003762194828595966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.006359963212162256</v>
+        <v>0.02357611060142517</v>
       </c>
       <c r="B8" t="n">
-        <v>0.004708928056061268</v>
+        <v>0.01263582054525614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03860533237457275</v>
+        <v>0.03075169585645199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02518598362803459</v>
+        <v>0.02462064474821091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0248015783727169</v>
+        <v>0.001194362062960863</v>
       </c>
       <c r="F8" t="n">
-        <v>0.148674950003624</v>
+        <v>0.004450631327927113</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01857499033212662</v>
+        <v>0.003218917176127434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1156072318553925</v>
+        <v>0.01786834932863712</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0356375053524971</v>
+        <v>0.00124801998026669</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01410384383052588</v>
+        <v>0.02872246876358986</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006792319007217884</v>
+        <v>0.0192504245787859</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02014333009719849</v>
+        <v>0.02425015158951283</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03188001736998558</v>
+        <v>0.02075961045920849</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01542764436453581</v>
+        <v>0.01399863138794899</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1350624859333038</v>
+        <v>0.001017820555716753</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01618292555212975</v>
+        <v>0.004845461342483759</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1086445823311806</v>
+        <v>0.01768901199102402</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04125411063432693</v>
+        <v>0.005269333720207214</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02440133690834045</v>
+        <v>0.009055765345692635</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02222710661590099</v>
+        <v>0.0007032022695057094</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002824630588293076</v>
+        <v>0.0001747102069202811</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01648900099098682</v>
+        <v>0.0003284639096818864</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01270382665097713</v>
+        <v>0.01453875284641981</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03317902982234955</v>
+        <v>0.002473364118486643</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001852723304182291</v>
+        <v>0.00113179290201515</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01398351043462753</v>
+        <v>0.01569246873259544</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01375410985201597</v>
+        <v>0.003596426686272025</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.002851102966815233</v>
+        <v>0.0004980270168744028</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01627403497695923</v>
+        <v>0.01170468609780073</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.006540539674460888</v>
+        <v>0.0004431753768585622</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02244316413998604</v>
+        <v>0.002418249845504761</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05475135147571564</v>
+        <v>0.003066736273467541</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01720307767391205</v>
+        <v>0.001813160022720695</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.02163664437830448</v>
+        <v>0.002984070917591453</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01662292703986168</v>
+        <v>0.004350835457444191</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.004297859966754913</v>
+        <v>0.004572055302560329</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0005252738483250141</v>
+        <v>0.001483764965087175</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.006935502402484417</v>
+        <v>0.003475263947620988</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.02410589903593063</v>
+        <v>0.001481628627516329</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.00256689079105854</v>
+        <v>0.003457851707935333</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.02478768676519394</v>
+        <v>0.00121423345990479</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.01153578422963619</v>
+        <v>0.003584857098758221</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.004744476173073053</v>
+        <v>0.005556276068091393</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.004487767815589905</v>
+        <v>0.0004501293879002333</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.007418315391987562</v>
+        <v>0.0007837535813450813</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001969166565686464</v>
+        <v>0.002469613216817379</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.001770872622728348</v>
+        <v>0.005726655479520559</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0144181065261364</v>
+        <v>0.01845933124423027</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.002961263060569763</v>
+        <v>0.0228929165750742</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.01003008708357811</v>
+        <v>0.004403391852974892</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.08313807100057602</v>
+        <v>0.006282790564000607</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.008120875805616379</v>
+        <v>0.004203883931040764</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.05097454413771629</v>
+        <v>0.01041143201291561</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.01332015637308359</v>
+        <v>0.004765556659549475</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.004135963972657919</v>
+        <v>0.02617190405726433</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.004151273984462023</v>
+        <v>0.01221660152077675</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.01911859586834908</v>
+        <v>0.003645496210083365</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.02592006139457226</v>
+        <v>0.003974491264671087</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01750265061855316</v>
+        <v>0.01724426448345184</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.008930869400501251</v>
+        <v>0.0005503108259290457</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.02188561856746674</v>
+        <v>0.01291119400411844</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.04423817247152328</v>
+        <v>0.02863318845629692</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.005848724395036697</v>
+        <v>0.0006710337474942207</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.005718867294490337</v>
+        <v>0.0009707508143037558</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01079035457223654</v>
+        <v>0.006624556146562099</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.005724187940359116</v>
+        <v>0.006043773144483566</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.02169886417686939</v>
+        <v>0.008651827462017536</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02138092741370201</v>
+        <v>0.01552856341004372</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.01732660457491875</v>
+        <v>0.002995621878653765</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.01674878038465977</v>
+        <v>0.00621365662664175</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.00140689592808485</v>
+        <v>0.003186721820384264</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001810053829103708</v>
+        <v>0.006498541217297316</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.01647940836846828</v>
+        <v>0.002794137690216303</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.007833695039153099</v>
+        <v>0.007635128684341908</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.005344402976334095</v>
+        <v>0.009022611193358898</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0002034828066825867</v>
+        <v>0.006082565058022738</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.00365284294821322</v>
+        <v>0.007679054513573647</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.04320202395319939</v>
+        <v>0.000761712493840605</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01242009084671736</v>
+        <v>0.004971026442945004</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.03036732412874699</v>
+        <v>0.01787272095680237</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.02775206789374352</v>
+        <v>0.005576075054705143</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0007664174190722406</v>
+        <v>0.005259108729660511</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.002802887465804815</v>
+        <v>0.003930516541004181</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.008081087842583656</v>
+        <v>0.006732193753123283</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.01521062571555376</v>
+        <v>0.004600830841809511</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.004277505911886692</v>
+        <v>0.004424207378178835</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0255195926874876</v>
+        <v>0.002434681402519345</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.00105058413464576</v>
+        <v>0.003198973834514618</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.02104261890053749</v>
+        <v>0.00443213852122426</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.005242539569735527</v>
+        <v>0.004186843056231737</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.01124634966254234</v>
+        <v>0.008316732943058014</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.004568848293274641</v>
+        <v>0.002080926205962896</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01796447113156319</v>
+        <v>0.001861040713265538</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.02428184822201729</v>
+        <v>0.001496664830483496</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.01955607533454895</v>
+        <v>0.007295011542737484</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.04207735881209373</v>
+        <v>0.002104598097503185</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.01183148194104433</v>
+        <v>0.002819756511598825</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01128639280796051</v>
+        <v>0.005053635686635971</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.003979421220719814</v>
+        <v>0.007489915005862713</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.004993610549718142</v>
+        <v>0.00552251236513257</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.003263933816924691</v>
+        <v>0.001832949812524021</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.008849414065480232</v>
+        <v>0.00349504197947681</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.01364290621131659</v>
+        <v>0.002949540736153722</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.003117285668849945</v>
+        <v>0.004035592079162598</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0279831700026989</v>
+        <v>0.001849104301072657</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.004495322704315186</v>
+        <v>0.001121025532484055</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.02654535323381424</v>
+        <v>0.003480604384094477</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.005766250193119049</v>
+        <v>0.004583805333822966</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.02642133086919785</v>
+        <v>0.0007234690710902214</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01685005612671375</v>
+        <v>0.01677554287016392</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.00190771056804806</v>
+        <v>0.006214278750121593</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001039996626786888</v>
+        <v>0.00556491781026125</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.003408824559301138</v>
+        <v>0.002707711420953274</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.02147945202887058</v>
+        <v>0.02048530243337154</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.01634841412305832</v>
+        <v>0.02060291916131973</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.01862474158406258</v>
+        <v>0.002396105555817485</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.01372955366969109</v>
+        <v>0.006861578673124313</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.009736919775605202</v>
+        <v>0.005247130990028381</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.005948578007519245</v>
+        <v>0.003380457870662212</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.003070186823606491</v>
+        <v>0.009455475024878979</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.008492727763950825</v>
+        <v>0.0006037660059519112</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.004626237787306309</v>
+        <v>0.009948629885911942</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.01122635416686535</v>
+        <v>0.0005409631412476301</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.002148524392396212</v>
+        <v>0.005709579680114985</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.006166667677462101</v>
+        <v>0.004222911316901445</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.001223559491336346</v>
+        <v>0.0020344911608845</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.003874087939038873</v>
+        <v>0.0006062830798327923</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0007827139925211668</v>
+        <v>0.002182701602578163</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.005235944874584675</v>
+        <v>0.00523867504671216</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.008967315778136253</v>
+        <v>0.001627186080440879</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.004550224170088768</v>
+        <v>0.001571666914969683</v>
       </c>
       <c r="EB8" t="n">
-        <v>5.881697870790958e-05</v>
+        <v>0.01255657523870468</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001972633879631758</v>
+        <v>0.002084634499624372</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.002265883842483163</v>
+        <v>0.008139705285429955</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.005660252645611763</v>
+        <v>0.008770661428570747</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.004245435819029808</v>
+        <v>0.004774563945829868</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.01134806778281927</v>
+        <v>0.002150565152987838</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.004054850898683071</v>
+        <v>0.006362913176417351</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.01109921839088202</v>
+        <v>0.005922615993767977</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01574682258069515</v>
+        <v>0.002329678740352392</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.03214771300554276</v>
+        <v>0.003799236146733165</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.00245313229970634</v>
+        <v>0.00267522013746202</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.02149173617362976</v>
+        <v>0.004959108307957649</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.008749187923967838</v>
+        <v>0.007808996364474297</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.001246532890945673</v>
+        <v>0.002473820466548204</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.01219476293772459</v>
+        <v>0.000558667816221714</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.01382933277636766</v>
+        <v>0.00680936872959137</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0004516354529187083</v>
+        <v>0.00348296482115984</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01402496453374624</v>
+        <v>0.002695228438824415</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.01810447871685028</v>
+        <v>0.0004640219267457724</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.007162968162447214</v>
+        <v>3.877094422932714e-05</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.008467747829854488</v>
+        <v>0.01448117289692163</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.003618371672928333</v>
+        <v>0.001357408124022186</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.001798826502636075</v>
+        <v>0.004192456603050232</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.004176543094217777</v>
+        <v>0.00282880337908864</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01220089755952358</v>
+        <v>0.004975600633770227</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.01433852780610323</v>
+        <v>0.002835764549672604</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.003463069908320904</v>
+        <v>0.002625557826831937</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.02560663409531116</v>
+        <v>0.002073190407827497</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.003567229257896543</v>
+        <v>0.001627662335522473</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.02441523596644402</v>
+        <v>0.003287554252892733</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.005126426462084055</v>
+        <v>0.005446123890578747</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.002345841843634844</v>
+        <v>0.001829192158766091</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.008321003988385201</v>
+        <v>0.0007833786075934768</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.005464388988912106</v>
+        <v>0.002035240875557065</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.02156207710504532</v>
+        <v>0.006482221186161041</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01052668783813715</v>
+        <v>0.007636894937604666</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.006488792598247528</v>
+        <v>0.006509840488433838</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.007185461930930614</v>
+        <v>0.005636225920170546</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.03225308656692505</v>
+        <v>0.002994238631799817</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.002900930121541023</v>
+        <v>0.01069736573845148</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.015588597394526</v>
+        <v>0.01500693894922733</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.02041600272059441</v>
+        <v>0.00644821859896183</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.003846829291433096</v>
+        <v>0.01910307630896568</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.03201651200652122</v>
+        <v>0.005142886191606522</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.008704501204192638</v>
+        <v>0.001947794575244188</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.06324268132448196</v>
+        <v>0.008119296282529831</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0210555661469698</v>
+        <v>0.003948796540498734</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.03543990105390549</v>
+        <v>8.177291601896286e-05</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.01389586925506592</v>
+        <v>0.00616740295663476</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.002470698673278093</v>
+        <v>0.00391846802085638</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.001270553795620799</v>
+        <v>0.001451608492061496</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.001833594404160976</v>
+        <v>0.004415411967784166</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.007605911698192358</v>
+        <v>0.006687107961624861</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.01204910688102245</v>
+        <v>0.004109063651412725</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01437201071530581</v>
+        <v>0.01077213976532221</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.009178459644317627</v>
+        <v>0.00126986566465348</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.01648843288421631</v>
+        <v>0.002815498504787683</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.006170965265482664</v>
+        <v>0.0009939237497746944</v>
       </c>
     </row>
     <row r="9">
@@ -5556,4554 +5556,4554 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.009719673544168472</v>
+        <v>0.002413928741589189</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008406208828091621</v>
+        <v>0.0226025078445673</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004396078875288367</v>
+        <v>0.00231997505761683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01232877094298601</v>
+        <v>0.01060517784208059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01627150364220142</v>
+        <v>0.005626839585602283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07714685797691345</v>
+        <v>0.01309729740023613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0185716301202774</v>
+        <v>0.0001327273203060031</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04146677255630493</v>
+        <v>0.004926357883960009</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01189060695469379</v>
+        <v>0.0003904500044882298</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009494790807366371</v>
+        <v>0.003628264646977186</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008018038235604763</v>
+        <v>0.01792416162788868</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001950912526808679</v>
+        <v>0.0008327607065439224</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01065849885344505</v>
+        <v>0.01008464861661196</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002427227795124054</v>
+        <v>0.006645519752055407</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07694127410650253</v>
+        <v>0.01587011478841305</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02395925670862198</v>
+        <v>0.002663638675585389</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04209743440151215</v>
+        <v>0.003955737687647343</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01817319728434086</v>
+        <v>0.00148102396633476</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01308854389935732</v>
+        <v>0.001565819606184959</v>
       </c>
       <c r="T10" t="n">
-        <v>0.009811078198254108</v>
+        <v>0.004404434934258461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003042270429432392</v>
+        <v>0.001772739458829165</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01410075090825558</v>
+        <v>0.002149173291400075</v>
       </c>
       <c r="W10" t="n">
-        <v>0.007077275309711695</v>
+        <v>0.001560987904667854</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0141891548410058</v>
+        <v>0.002077231649309397</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.008178037591278553</v>
+        <v>0.001819615950807929</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.004824095405638218</v>
+        <v>0.0008544971933588386</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001664007315412164</v>
+        <v>0.001962356269359589</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.006210893392562866</v>
+        <v>0.0007475269958376884</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001798384822905064</v>
+        <v>0.003272732021287084</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001739976229146123</v>
+        <v>0.001459278049878776</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.005733617581427097</v>
+        <v>0.002227455377578735</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03568823635578156</v>
+        <v>0.0008670970564708114</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.001908899517729878</v>
+        <v>0.002313136821612716</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.00058133335551247</v>
+        <v>0.003502755658701062</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01698142662644386</v>
+        <v>0.001023422461003065</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.004696635995060205</v>
+        <v>0.001212039263918996</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.004501672461628914</v>
+        <v>0.003073185216635466</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.003724424168467522</v>
+        <v>0.004541690461337566</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.01854962855577469</v>
+        <v>0.0008298699394799769</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.009900976903736591</v>
+        <v>0.0008152892114594579</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01187554001808167</v>
+        <v>0.0005525397136807442</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.005157776642590761</v>
+        <v>0.002751318039372563</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0002874921774491668</v>
+        <v>0.001792813534848392</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.004486697260290384</v>
+        <v>0.001659546629525721</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.005387892480939627</v>
+        <v>0.002941366750746965</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.010462436825037</v>
+        <v>0.004011994693428278</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01340871956199408</v>
+        <v>0.01817535050213337</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.008925069123506546</v>
+        <v>0.001039544004015625</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.01796095818281174</v>
+        <v>0.001573645044118166</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.002191871171817183</v>
+        <v>0.0009859580313786864</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.03469526767730713</v>
+        <v>0.006572439335286617</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.007168487645685673</v>
+        <v>0.001347528188489377</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.02196016907691956</v>
+        <v>0.0061678197234869</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.005999079439789057</v>
+        <v>0.001737730577588081</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.000532080652192235</v>
+        <v>0.001824995735660195</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.002152529079467058</v>
+        <v>0.004169086925685406</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.004679740406572819</v>
+        <v>0.005375776439905167</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.01131695881485939</v>
+        <v>0.001181549741886556</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0002977447584271431</v>
+        <v>0.007705064956098795</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01239794120192528</v>
+        <v>0.004579867236316204</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.005085883662104607</v>
+        <v>0.00094155891565606</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01225150004029274</v>
+        <v>0.007138527929782867</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001938324654474854</v>
+        <v>0.0005648085498251021</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.001530725392512977</v>
+        <v>0.0003336041118018329</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.005402961745858192</v>
+        <v>0.004812971688807011</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.001809080480597913</v>
+        <v>0.003187721595168114</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.009224456734955311</v>
+        <v>0.004687507636845112</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.009494829922914505</v>
+        <v>0.004061202518641949</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.007668170146644115</v>
+        <v>0.001542260171845555</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.007167569361627102</v>
+        <v>0.002421715762466192</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.004926051013171673</v>
+        <v>0.001189652015455067</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.004715317860245705</v>
+        <v>0.002408637665212154</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.01464018411934376</v>
+        <v>0.002302473178133368</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.007521826773881912</v>
+        <v>0.008788053877651691</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0008411483722738922</v>
+        <v>0.003831207286566496</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.01744192093610764</v>
+        <v>0.001973119331523776</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.007356922142207623</v>
+        <v>0.0005065190489403903</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.03169914335012436</v>
+        <v>0.001874902052804828</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.002728698309510946</v>
+        <v>0.002774922177195549</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.01900618895888329</v>
+        <v>0.003292976878583431</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.005752711556851864</v>
+        <v>0.001887838821858168</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0001592346816323698</v>
+        <v>3.336463123559952e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0007134368061088026</v>
+        <v>0.004137166775763035</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.002651058835908771</v>
+        <v>0.002307208953425288</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.01248481217771769</v>
+        <v>0.002501618582755327</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001454742858186364</v>
+        <v>0.001028600614517927</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.01232129521667957</v>
+        <v>0.002297009108588099</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.003278872463852167</v>
+        <v>0.001476762816309929</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.006342680193483829</v>
+        <v>0.0008331699064001441</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0005537627730518579</v>
+        <v>0.001154855010099709</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0170055665075779</v>
+        <v>0.005680866073817015</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.003146174130961299</v>
+        <v>0.003849310101941228</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.008861050009727478</v>
+        <v>0.0004618924867827445</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.002106912666931748</v>
+        <v>0.003700541099533439</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.01187635585665703</v>
+        <v>0.003491905983537436</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.01178042590618134</v>
+        <v>0.0007586335996165872</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.008078310638666153</v>
+        <v>0.00213381857611239</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.003372811712324619</v>
+        <v>0.003235436975955963</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.01468440797179937</v>
+        <v>0.0004803756892215461</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.003041311167180538</v>
+        <v>0.00027556560235098</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.001712552271783352</v>
+        <v>0.003356770612299442</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.003289466258138418</v>
+        <v>0.002733909524977207</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.01072854734957218</v>
+        <v>0.00374048319645226</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.004065828397870064</v>
+        <v>0.0009641377255320549</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01482322067022324</v>
+        <v>0.002590385731309652</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.001885589910671115</v>
+        <v>0.001523800659924746</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01005484629422426</v>
+        <v>0.00230125430971384</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.001996732084080577</v>
+        <v>0.0005325675010681152</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.005882521625608206</v>
+        <v>0.002251109341159463</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.006006199400871992</v>
+        <v>0.006984805222600698</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.01044426113367081</v>
+        <v>0.001350496313534677</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01006791274994612</v>
+        <v>0.006842407863587141</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.01932418160140514</v>
+        <v>0.0009235296747647226</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.01690526120364666</v>
+        <v>0.0008446390856988728</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.006510636303573847</v>
+        <v>0.007112070452421904</v>
       </c>
       <c r="DL10" t="n">
-        <v>3.125937655568123e-05</v>
+        <v>0.002213242929428816</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.01928115636110306</v>
+        <v>0.002415730152279139</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.005045163445174694</v>
+        <v>0.001497853198088706</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.001717587001621723</v>
+        <v>0.003223027102649212</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.004655011929571629</v>
+        <v>0.0009009211789816618</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.009810681454837322</v>
+        <v>0.0020655517000705</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.004773933440446854</v>
+        <v>0.001850082306191325</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.007122110575437546</v>
+        <v>0.002227887744084001</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.01289206463843584</v>
+        <v>0.0008304912480525672</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.005847455002367496</v>
+        <v>0.0003520962200127542</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0003310900647193193</v>
+        <v>0.001806814572773874</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.002349707763642073</v>
+        <v>0.0002799005014821887</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.008149970322847366</v>
+        <v>0.0001540413068141788</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.001051570172421634</v>
+        <v>0.003521926235407591</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.008034310303628445</v>
+        <v>0.001328587881289423</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.005352846812456846</v>
+        <v>0.002030974254012108</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.004603895358741283</v>
+        <v>0.002188648330047727</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0009399285772815347</v>
+        <v>0.001259933691471815</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0113899540156126</v>
+        <v>0.0006050647352822125</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.003267891705036163</v>
+        <v>0.000191795639693737</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.003121137619018555</v>
+        <v>0.002735645975917578</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.003476201090961695</v>
+        <v>0.001568203791975975</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0005518965190276504</v>
+        <v>0.001588047947734594</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.009919243864715099</v>
+        <v>0.002029186114668846</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.008783184923231602</v>
+        <v>0.0003592072171159089</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.02226521261036396</v>
+        <v>0.001262644538655877</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.001666244934312999</v>
+        <v>0.002406905870884657</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0005287593230605125</v>
+        <v>0.0003043353790417314</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0004359004087746143</v>
+        <v>0.0001271406363230199</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0001366548240184784</v>
+        <v>0.00146644888445735</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.006221230607479811</v>
+        <v>0.0001086877964553423</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.003131462028250098</v>
+        <v>0.003998904954642057</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.005713536869734526</v>
+        <v>0.002373791532590985</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.003845434403046966</v>
+        <v>0.001535254996269941</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.007329003419727087</v>
+        <v>0.002723178826272488</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001068369019776583</v>
+        <v>0.002216367982327938</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.007019986398518085</v>
+        <v>0.004179897252470255</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.003063398180529475</v>
+        <v>0.0004071882576681674</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0007498919148929417</v>
+        <v>0.0002292856224812567</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.001234578434377909</v>
+        <v>0.002772770589217544</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.004011931363493204</v>
+        <v>0.002123138168826699</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.01146715693175793</v>
+        <v>0.002680749865248799</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.002446394879370928</v>
+        <v>0.001312249922193587</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01344935409724712</v>
+        <v>0.002234139014035463</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.003645212389528751</v>
+        <v>0.002175378147512674</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.009537799283862114</v>
+        <v>0.001238173805177212</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.00259431404992938</v>
+        <v>0.001218474470078945</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.001794633455574512</v>
+        <v>0.001666061230935156</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.004511302337050438</v>
+        <v>0.003005728591233492</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.001744647743180394</v>
+        <v>0.003048863960430026</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001786262495443225</v>
+        <v>0.001080542337149382</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.005214477889239788</v>
+        <v>0.001010527485050261</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.005266748368740082</v>
+        <v>0.002826865296810865</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.005101199727505445</v>
+        <v>0.0002000987879000604</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.01021066959947348</v>
+        <v>0.0001342270115856081</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.002627916168421507</v>
+        <v>0.001524746185168624</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.006519034504890442</v>
+        <v>0.002144965576007962</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.001853241818025708</v>
+        <v>0.003497663419693708</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.001637401757761836</v>
+        <v>0.001113796373829246</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.003104505594819784</v>
+        <v>0.004599488340318203</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.007386836223304272</v>
+        <v>0.005301319994032383</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.02562490291893482</v>
+        <v>0.002163793426007032</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.007011301349848509</v>
+        <v>0.001395117491483688</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.01548834051936865</v>
+        <v>0.00253899535164237</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0005796728655695915</v>
+        <v>0.000114559312351048</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.005668518133461475</v>
+        <v>0.0019506054231897</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.001415359787642956</v>
+        <v>0.00238999561406672</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.001395682105794549</v>
+        <v>0.001254789298400283</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.002818530891090631</v>
+        <v>0.002636772580444813</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.00556572899222374</v>
+        <v>0.001314612105488777</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.009803226217627525</v>
+        <v>0.0031505455262959</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.007274415343999863</v>
+        <v>0.008909157477319241</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.009367097169160843</v>
+        <v>0.00481189601123333</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0008193534449674189</v>
+        <v>0.0008803685777820647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008207050152122974</v>
+        <v>0.0007918140618130565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09113049507141113</v>
+        <v>0.01422211062163115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01460818387567997</v>
+        <v>0.002232483588159084</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01120067201554775</v>
+        <v>0.00731344148516655</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05565504729747772</v>
+        <v>0.004296678118407726</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1758416295051575</v>
+        <v>0.0030947495251894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005632825195789337</v>
+        <v>0.001779771642759442</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02548906207084656</v>
+        <v>0.0008023690897971392</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01538654323667288</v>
+        <v>0.000567986280657351</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01451744977384806</v>
+        <v>0.001934042200446129</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1016581207513809</v>
+        <v>0.01122956164181232</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0256593469530344</v>
+        <v>0.0004261017311364412</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009842993691563606</v>
+        <v>0.007039058022201061</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02245685830712318</v>
+        <v>0.004422882571816444</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1762470006942749</v>
+        <v>0.00362748745828867</v>
       </c>
       <c r="P11" t="n">
-        <v>0.003055971581488848</v>
+        <v>0.0008046802249737084</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008012924343347549</v>
+        <v>0.001599003444425762</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01487366482615471</v>
+        <v>0.001474245102144778</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02000697702169418</v>
+        <v>0.0003845908213406801</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01952491886913776</v>
+        <v>0.002543191658332944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01143413502722979</v>
+        <v>0.0003068844671361148</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02358865737915039</v>
+        <v>0.0007814235868863761</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005629721097648144</v>
+        <v>0.0008238695445470512</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0477658286690712</v>
+        <v>0.002660601167008281</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01496295537799597</v>
+        <v>0.001561311073601246</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0201098769903183</v>
+        <v>0.0002568547497503459</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0014681292232126</v>
+        <v>0.001215642667375505</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03479547426104546</v>
+        <v>0.0007270345231518149</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01315789297223091</v>
+        <v>0.00253880163654685</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.007863247767090797</v>
+        <v>0.0003447083581704646</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01277499552816153</v>
+        <v>0.0006010546931065619</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.04028135910630226</v>
+        <v>0.0001746568595990539</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01004287321120501</v>
+        <v>1.765092019923031e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.003269651671871543</v>
+        <v>0.0009320653043687344</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.008893776684999466</v>
+        <v>0.0008338570478372276</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.002344668610021472</v>
+        <v>0.0006525291246362031</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.005412105470895767</v>
+        <v>0.0007007051608525217</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.007258350029587746</v>
+        <v>0.001597869675606489</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.002338817808777094</v>
+        <v>0.0001639051188249141</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.009451065212488174</v>
+        <v>0.0001114351325668395</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.002606848254799843</v>
+        <v>0.001098811626434326</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02195586636662483</v>
+        <v>0.001171701587736607</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.007343773730099201</v>
+        <v>0.0004957248456776142</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.006376786157488823</v>
+        <v>0.0006805744487792253</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01238253340125084</v>
+        <v>0.0005470891483128071</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.006050558295100927</v>
+        <v>0.001384937204420567</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.06327395141124725</v>
+        <v>0.008688288740813732</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.008315427228808403</v>
+        <v>0.0007976031629368663</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0389677882194519</v>
+        <v>0.001491691800765693</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.004338081460446119</v>
+        <v>0.001268305815756321</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.07280373573303223</v>
+        <v>0.0001012228312902153</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.003856601193547249</v>
+        <v>0.0002191042149206623</v>
       </c>
       <c r="BA11" t="n">
-        <v>6.147613748908043e-05</v>
+        <v>8.309964323416352e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.006830967962741852</v>
+        <v>8.260190952569246e-06</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.03021352738142014</v>
+        <v>0.0009330344037152827</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.004059880040585995</v>
+        <v>0.002714635338634253</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.008484622463583946</v>
+        <v>0.002699482254683971</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.02716811373829842</v>
+        <v>0.001799614634364843</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.004009004216641188</v>
+        <v>0.004897786304354668</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0379486195743084</v>
+        <v>0.001094796578399837</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.009920627810060978</v>
+        <v>0.00186398858204484</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.03403815627098083</v>
+        <v>0.001248218934051692</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.005038260016590357</v>
+        <v>0.001782629755325615</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.00712352292612195</v>
+        <v>0.0005686896620318294</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01646936498582363</v>
+        <v>0.001021616975776851</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.01078970916569233</v>
+        <v>0.001278905663639307</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.009665951132774353</v>
+        <v>0.0003948219818994403</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.03072341531515121</v>
+        <v>0.0004068931157235056</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0196114256978035</v>
+        <v>0.001311970292590559</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.005794350989162922</v>
+        <v>0.0005600566510111094</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.03363419324159622</v>
+        <v>8.28024058137089e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.01924229599535465</v>
+        <v>0.0002275831648148596</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.005153227597475052</v>
+        <v>0.0009897083509713411</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.02520426362752914</v>
+        <v>0.004732671193778515</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.01634442992508411</v>
+        <v>0.002122142584994435</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.01461964379996061</v>
+        <v>0.002118539065122604</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01891002058982849</v>
+        <v>9.310689347330481e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.06119471788406372</v>
+        <v>0.001243776874616742</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.002812749706208706</v>
+        <v>0.0003994761500507593</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.006933280266821384</v>
+        <v>0.0001425727677997202</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01876696571707726</v>
+        <v>0.0009221427026204765</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.003270178800448775</v>
+        <v>6.319217209238559e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.01941114850342274</v>
+        <v>0.002419843571260571</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.002611430827528238</v>
+        <v>0.0008615429396741092</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.007376444060355425</v>
+        <v>0.000765484175644815</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01003041304647923</v>
+        <v>0.0004865712835453451</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.03049126639962196</v>
+        <v>0.0008154424140229821</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.003898232709616423</v>
+        <v>0.0003918859001714736</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.002114732284098864</v>
+        <v>0.0001656628301134333</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.002825380535796285</v>
+        <v>0.0007617772207595408</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.002929406706243753</v>
+        <v>0.00206100707873702</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01100493036210537</v>
+        <v>0.0004811772087123245</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.01681296154856682</v>
+        <v>0.0001610956533113495</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0006331871263682842</v>
+        <v>0.0007521860534325242</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.01984361931681633</v>
+        <v>0.001598554197698832</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.02347825095057487</v>
+        <v>0.001773592201061547</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.007916510105133057</v>
+        <v>0.001339538604952395</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.01524812076240778</v>
+        <v>0.002010979223996401</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.002588000381365418</v>
+        <v>0.0002677743032108992</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.008229006081819534</v>
+        <v>4.978617653250694e-06</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.01637584529817104</v>
+        <v>0.002145122503861785</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.002828956115990877</v>
+        <v>0.001066912547685206</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.008486991748213768</v>
+        <v>0.001163855660706758</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.008029205724596977</v>
+        <v>0.0004385888169053942</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.03043434582650661</v>
+        <v>0.001142163062468171</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.003445543581619859</v>
+        <v>0.0003920838353224099</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.002503583673387766</v>
+        <v>0.0002056712255580351</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.001910777529701591</v>
+        <v>0.0004196625377517194</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.02239768579602242</v>
+        <v>0.001044544973410666</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.01117023639380932</v>
+        <v>0.003289205022156239</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.017806651070714</v>
+        <v>0.0004143472469877452</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.01119764521718025</v>
+        <v>0.002641247818246484</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02270766533911228</v>
+        <v>0.0001630939805181697</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.004634998738765717</v>
+        <v>0.001551328809000552</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.03051808662712574</v>
+        <v>0.001670354744419456</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.01371244620531797</v>
+        <v>0.000234672668739222</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.02546265721321106</v>
+        <v>0.0004234252846799791</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.008775831200182438</v>
+        <v>0.000189755650353618</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.001443850109353662</v>
+        <v>0.0007358124712482095</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0006326407310552895</v>
+        <v>0.000459983799373731</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.01491468399763107</v>
+        <v>0.0003379552508704364</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01046767923980951</v>
+        <v>0.001978120999410748</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.01395984645932913</v>
+        <v>0.0006497839349322021</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.002993294503539801</v>
+        <v>0.0009754211641848087</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.003391481004655361</v>
+        <v>0.0005054834764450788</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.01383592002093792</v>
+        <v>0.0008256395813077688</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.001967398449778557</v>
+        <v>0.0002297140163136646</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01004627719521523</v>
+        <v>0.001605753321200609</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.01240553054958582</v>
+        <v>0.000886937603354454</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.00122384075075388</v>
+        <v>0.0001483146043028682</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.004992597736418247</v>
+        <v>0.001116381725296378</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.006555047817528248</v>
+        <v>0.0001956317864824086</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.00248434254899621</v>
+        <v>0.00043141795322299</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.002460701391100883</v>
+        <v>0.0008231549290940166</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.01354269869625568</v>
+        <v>0.001058993511833251</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.006649644579738379</v>
+        <v>0.0006036579143255949</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02666372433304787</v>
+        <v>0.001484250067733228</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.01255757454782724</v>
+        <v>0.0007998897926881909</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.007988032884895802</v>
+        <v>0.0009854448726400733</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0357244461774826</v>
+        <v>0.000915701559279114</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.03358233347535133</v>
+        <v>0.001675285981036723</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.006401641760021448</v>
+        <v>0.0006165262311697006</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0006538843736052513</v>
+        <v>0.0003505573840811849</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.005588330328464508</v>
+        <v>0.0004461602366063744</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.008717919699847698</v>
+        <v>0.0003370724152773619</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.002770319581031799</v>
+        <v>0.001580799580551684</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.01688942685723305</v>
+        <v>0.001371121150441468</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.002018569502979517</v>
+        <v>0.001154986210167408</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.01372454594820738</v>
+        <v>0.0001844784710556269</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.02459932863712311</v>
+        <v>0.001976365922018886</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01226667501032352</v>
+        <v>0.0008987416513264179</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.004324691835790873</v>
+        <v>1.060768045135774e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.01511009037494659</v>
+        <v>0.0007088954444043338</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.005181059241294861</v>
+        <v>0.0003804689622484148</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01863229833543301</v>
+        <v>0.002288448391482234</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.005743256770074368</v>
+        <v>0.0005646419012919068</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.01028401777148247</v>
+        <v>0.001350629609078169</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.009423928335309029</v>
+        <v>0.000658850185573101</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.03107246942818165</v>
+        <v>0.00104536535218358</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.002836737083271146</v>
+        <v>0.0005214405828155577</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0007946703117340803</v>
+        <v>0.0001174198987428099</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.001924357726238668</v>
+        <v>0.0007028821855783463</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.01513311266899109</v>
+        <v>2.411282912362367e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01715754717588425</v>
+        <v>0.0003330025938339531</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.03383124992251396</v>
+        <v>0.0007767676142975688</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.01773160696029663</v>
+        <v>0.001278834184631705</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0251383651047945</v>
+        <v>0.0006088959635235369</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.03070976585149765</v>
+        <v>0.0004717808042187244</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.006645826157182455</v>
+        <v>0.0008782764198258519</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.002300082240253687</v>
+        <v>0.0003126459196209908</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.01063290238380432</v>
+        <v>0.0007633635541424155</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.001794390729628503</v>
+        <v>0.0002626554050948471</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01900368370115757</v>
+        <v>0.002906670095399022</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0007042674114927649</v>
+        <v>0.00109213381074369</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.02263082563877106</v>
+        <v>0.001865394879132509</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.007363526150584221</v>
+        <v>0.0001716205733828247</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.04674462974071503</v>
+        <v>0.0004018026520498097</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.001973081612959504</v>
+        <v>0.000154626410221681</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.004082304891198874</v>
+        <v>0.0003380614798516035</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.006334333680570126</v>
+        <v>0.0003942896728403866</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.01365892868489027</v>
+        <v>0.001755204168148339</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.003125777933746576</v>
+        <v>0.0004106783890165389</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.003826832864433527</v>
+        <v>0.0003624751116149127</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0003709793090820312</v>
+        <v>1.434364730812376e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.006408080458641052</v>
+        <v>0.001330737490206957</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.01006081327795982</v>
+        <v>0.001011815737001598</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.00639492180198431</v>
+        <v>0.002985119819641113</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.03996045887470245</v>
+        <v>0.0001529041037429124</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.009586368687450886</v>
+        <v>0.0004325065528973937</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.005757339298725128</v>
+        <v>0.06575857102870941</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01728638634085655</v>
+        <v>0.8338966369628906</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01128780469298363</v>
+        <v>0.05294892191886902</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09069287776947021</v>
+        <v>0.4252380430698395</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03993486613035202</v>
+        <v>0.07336664944887161</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5170879364013672</v>
+        <v>1.098012804985046</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07070177048444748</v>
+        <v>0.2480084747076035</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4035535752773285</v>
+        <v>0.3131518065929413</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03683913499116898</v>
+        <v>0.09046807885169983</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01328673120588064</v>
+        <v>0.172650009393692</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01625644229352474</v>
+        <v>0.7141258716583252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02438527531921864</v>
+        <v>0.07763016223907471</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07866623252630234</v>
+        <v>0.5661773681640625</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1207444220781326</v>
+        <v>0.1224917694926262</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4977116882801056</v>
+        <v>0.9409878849983215</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06180349737405777</v>
+        <v>0.262444794178009</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4225753247737885</v>
+        <v>0.2390585392713547</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0600474588572979</v>
+        <v>0.1577088832855225</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09521787613630295</v>
+        <v>0.04444761201739311</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001174774020910263</v>
+        <v>0.1336584091186523</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04368912801146507</v>
+        <v>0.04639385640621185</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04064662382006645</v>
+        <v>0.07438552379608154</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05980851128697395</v>
+        <v>0.01787148416042328</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1153496205806732</v>
+        <v>0.02249258942902088</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02274662815034389</v>
+        <v>0.005157418549060822</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05996210873126984</v>
+        <v>0.05289885774254799</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001376266591250896</v>
+        <v>0.01935797929763794</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01080835610628128</v>
+        <v>0.07382475584745407</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.009120341390371323</v>
+        <v>0.08237726241350174</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001077759079635143</v>
+        <v>0.009777231141924858</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.08127263188362122</v>
+        <v>0.02655568718910217</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1948497444391251</v>
+        <v>0.007581315934658051</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01254358142614365</v>
+        <v>0.003197267651557922</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1428934037685394</v>
+        <v>0.01144495606422424</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.02364968881011009</v>
+        <v>0.007671715691685677</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.007032444700598717</v>
+        <v>0.04014059156179428</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01804206892848015</v>
+        <v>0.1234916970133781</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002454476431012154</v>
+        <v>0.1049642786383629</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1059019416570663</v>
+        <v>0.09678472578525543</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.02678345143795013</v>
+        <v>0.0004439111799001694</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1429515182971954</v>
+        <v>0.08183091878890991</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.05849354714155197</v>
+        <v>0.1939420402050018</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.00213831290602684</v>
+        <v>0.08923004567623138</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.01909724995493889</v>
+        <v>0.11673254519701</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.01709121279418468</v>
+        <v>0.05799339711666107</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.02808420360088348</v>
+        <v>0.04465784877538681</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.05601991713047028</v>
+        <v>0.6198756098747253</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.01710564270615578</v>
+        <v>0.1182066202163696</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.006214545108377934</v>
+        <v>0.01735194772481918</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01411671098321676</v>
+        <v>0.03044342994689941</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2413016855716705</v>
+        <v>0.668890118598938</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01445790380239487</v>
+        <v>0.05624917522072792</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.1382400542497635</v>
+        <v>0.09832128882408142</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.03306323289871216</v>
+        <v>0.1059458404779434</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.04961211606860161</v>
+        <v>0.002301763743162155</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.02323880791664124</v>
+        <v>0.2477821856737137</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.009649957530200481</v>
+        <v>0.2364634126424789</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.08562199771404266</v>
+        <v>0.241421103477478</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.09369686245918274</v>
+        <v>0.1917970776557922</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.06319914758205414</v>
+        <v>0.3853176534175873</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.1058889403939247</v>
+        <v>0.08746033906936646</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.1310578584671021</v>
+        <v>0.09458056092262268</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.00744998175650835</v>
+        <v>0.0058872289955616</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01157921273261309</v>
+        <v>0.01774046197533607</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.03732876852154732</v>
+        <v>0.2538631558418274</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.01223813556134701</v>
+        <v>0.02553786337375641</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.03015204519033432</v>
+        <v>0.03736945614218712</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.03254195675253868</v>
+        <v>0.1676806062459946</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.06294695287942886</v>
+        <v>0.03523793071508408</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.08967140316963196</v>
+        <v>0.1628084778785706</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.001032762229442596</v>
+        <v>0.07928220927715302</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.02742233499884605</v>
+        <v>0.02630408108234406</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.05477941781282425</v>
+        <v>0.03610224649310112</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.009293560869991779</v>
+        <v>0.3272297978401184</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.00775043061003089</v>
+        <v>0.01124052703380585</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.01130672078579664</v>
+        <v>0.05312877148389816</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.03678719699382782</v>
+        <v>0.01364106871187687</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.2189010679721832</v>
+        <v>0.2924981713294983</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.04063373059034348</v>
+        <v>0.02539890259504318</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.1289270222187042</v>
+        <v>0.08004130423069</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.02545243874192238</v>
+        <v>0.03640299290418625</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.01982497610151768</v>
+        <v>0.007433827500790358</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.005816724617034197</v>
+        <v>0.1401144117116928</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0142412930727005</v>
+        <v>0.03920597955584526</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.04041128605604172</v>
+        <v>0.09011198580265045</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01657374389469624</v>
+        <v>0.06225527077913284</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.09458941221237183</v>
+        <v>0.1312504857778549</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.007905580103397369</v>
+        <v>0.04795707017183304</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.06055797636508942</v>
+        <v>0.04731075465679169</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.007585233543068171</v>
+        <v>0.03185917437076569</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.07857546955347061</v>
+        <v>0.1960085928440094</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.09313137084245682</v>
+        <v>0.1508825868368149</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.04188690707087517</v>
+        <v>0.03093691729009151</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.06448754668235779</v>
+        <v>0.05252436175942421</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.06239021569490433</v>
+        <v>0.1538019329309464</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.07479469478130341</v>
+        <v>0.01052466407418251</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.02802817709743977</v>
+        <v>0.05457703769207001</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.04782015085220337</v>
+        <v>0.1084066852927208</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.04468617588281631</v>
+        <v>0.1337555944919586</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.03035250119864941</v>
+        <v>0.02719374001026154</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.01553748175501823</v>
+        <v>0.1082081198692322</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01288724225014448</v>
+        <v>0.0306219570338726</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0302131325006485</v>
+        <v>0.113532118499279</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.00717336218804121</v>
+        <v>0.02817439287900925</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.1003849282860756</v>
+        <v>0.1171258091926575</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0004474520683288574</v>
+        <v>0.06031098216772079</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.09110269695520401</v>
+        <v>0.1078631579875946</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.006381049752235413</v>
+        <v>0.06676273047924042</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.1820816397666931</v>
+        <v>0.01239307224750519</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.1608745008707047</v>
+        <v>0.2960476577281952</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02895776741206646</v>
+        <v>0.05488333851099014</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.001454890705645084</v>
+        <v>0.2121999859809875</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01531281881034374</v>
+        <v>0.1037418767809868</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.1182481199502945</v>
+        <v>0.02433643862605095</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0218035951256752</v>
+        <v>0.01756882667541504</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.01758556254208088</v>
+        <v>0.2417742311954498</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.023210434243083</v>
+        <v>0.1872466206550598</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.05404730141162872</v>
+        <v>0.04015836492180824</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.02809415757656097</v>
+        <v>0.03751147910952568</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.02341136522591114</v>
+        <v>0.09096124768257141</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.04836641997098923</v>
+        <v>0.07517556846141815</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.04389465600252151</v>
+        <v>0.03612079471349716</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.005615702364593744</v>
+        <v>0.06173179298639297</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.05048754066228867</v>
+        <v>0.004999792203307152</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.01642685011029243</v>
+        <v>0.0216144397854805</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.002989166416227818</v>
+        <v>0.03331562131643295</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.01964117959141731</v>
+        <v>0.0126240998506546</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.02106684260070324</v>
+        <v>0.07671669870615005</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.01020848099142313</v>
+        <v>0.0226527526974678</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02281968668103218</v>
+        <v>0.002227723598480225</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01563134044408798</v>
+        <v>0.09498056024312973</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01535962149500847</v>
+        <v>0.06056477129459381</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.02717031724750996</v>
+        <v>0.008535213768482208</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.005990862380713224</v>
+        <v>0.06850527971982956</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.01870771683752537</v>
+        <v>0.0161350779235363</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.08622340857982635</v>
+        <v>0.04380499571561813</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.04605493694543839</v>
+        <v>0.05544675141572952</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.00238832482136786</v>
+        <v>0.02961210161447525</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.02958936803042889</v>
+        <v>0.04532033205032349</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.04245870560407639</v>
+        <v>0.004569552838802338</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.1312113702297211</v>
+        <v>0.1192740276455879</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.003381046000868082</v>
+        <v>0.04159382730722427</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.09060124307870865</v>
+        <v>0.01732873171567917</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.01847286708652973</v>
+        <v>0.05731987208127975</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.04557083174586296</v>
+        <v>0.08656676113605499</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.01062481570988894</v>
+        <v>0.02458813786506653</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.02213713712990284</v>
+        <v>0.01272548735141754</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.02730909362435341</v>
+        <v>0.06262212991714478</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.04309885948896408</v>
+        <v>0.0119556188583374</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.04687768220901489</v>
+        <v>0.002377201803028584</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.01374037750065327</v>
+        <v>0.06566759943962097</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.06482899934053421</v>
+        <v>0.1959791481494904</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0161607414484024</v>
+        <v>0.04635637253522873</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.02505657263100147</v>
+        <v>0.0195581242442131</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01824267953634262</v>
+        <v>0.1018081903457642</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01805813983082771</v>
+        <v>0.003711041063070297</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.04859115183353424</v>
+        <v>0.07071423530578613</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02845653519034386</v>
+        <v>0.001359804533421993</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.09973885864019394</v>
+        <v>0.1208581477403641</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.006859801709651947</v>
+        <v>0.08283863961696625</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.09599753469228745</v>
+        <v>0.07738390564918518</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.004733843728899956</v>
+        <v>0.02520820125937462</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.008875470608472824</v>
+        <v>0.01666545309126377</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.002573003061115742</v>
+        <v>0.0695909708738327</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.01016264222562313</v>
+        <v>0.03621326759457588</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.04945162311196327</v>
+        <v>0.03832046687602997</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02434417977929115</v>
+        <v>0.03934028744697571</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.05054062604904175</v>
+        <v>0.2235845476388931</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.01094832736998796</v>
+        <v>0.04018201306462288</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.03238653764128685</v>
+        <v>0.07312946021556854</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.02201802656054497</v>
+        <v>0.0005249716341495514</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.04252415895462036</v>
+        <v>0.09479974955320358</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.003791946917772293</v>
+        <v>0.1126237511634827</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.001485222484916449</v>
+        <v>0.02018273435533047</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.09992314130067825</v>
+        <v>0.2046276926994324</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01809153705835342</v>
+        <v>0.2121905982494354</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.1655475348234177</v>
+        <v>0.183002695441246</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.08026543259620667</v>
+        <v>0.085478276014328</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.08242182433605194</v>
+        <v>0.0469113290309906</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.04985712468624115</v>
+        <v>0.03864721208810806</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.009299928322434425</v>
+        <v>0.1032835319638252</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.03386036306619644</v>
+        <v>0.07257340103387833</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.01615533605217934</v>
+        <v>0.06605424731969833</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0137768592685461</v>
+        <v>0.129653126001358</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.04035248607397079</v>
+        <v>0.2489238977432251</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.02081287652254105</v>
+        <v>0.1548534631729126</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.01874632947146893</v>
+        <v>0.1235733181238174</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.04615431651473045</v>
+        <v>0.120749294757843</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.008577610366046429</v>
+        <v>0.01422047987580299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.003240042831748724</v>
+        <v>0.01206095889210701</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07253368943929672</v>
+        <v>0.09109248965978622</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004955162294209003</v>
+        <v>0.0103728985413909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001023615710437298</v>
+        <v>0.04428792372345924</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04687172174453735</v>
+        <v>0.02178597263991833</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07550618052482605</v>
+        <v>0.02394033782184124</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003760430030524731</v>
+        <v>0.008214196190237999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01749522425234318</v>
+        <v>0.00463063782081008</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009646540507674217</v>
+        <v>0.001458886545151472</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01122958585619926</v>
+        <v>0.01345566660165787</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0769931748509407</v>
+        <v>0.06831333786249161</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002635876415297389</v>
+        <v>0.004354050848633051</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01273962110280991</v>
+        <v>0.03518854454159737</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04750843718647957</v>
+        <v>0.02421051263809204</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06482489407062531</v>
+        <v>0.02617909945547581</v>
       </c>
       <c r="P13" t="n">
-        <v>0.006257431581616402</v>
+        <v>0.007360587827861309</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01081555057317019</v>
+        <v>0.01554620824754238</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00501345656812191</v>
+        <v>0.0001237519027199596</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00429580407217145</v>
+        <v>0.0052026123739779</v>
       </c>
       <c r="T13" t="n">
-        <v>0.003877548966556787</v>
+        <v>0.01533466577529907</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0003771752526517957</v>
+        <v>0.0006482506869360805</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0006585471564903855</v>
+        <v>0.01232234109193087</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0001723841996863484</v>
+        <v>0.007250112015753984</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01811635494232178</v>
+        <v>0.01190588064491749</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.00920629408210516</v>
+        <v>0.009756774641573429</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01695176213979721</v>
+        <v>0.01090588141232729</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0006629661656916142</v>
+        <v>0.01044938899576664</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.006552328821271658</v>
+        <v>0.0003090864047408104</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003358126850798726</v>
+        <v>0.0007337058777920902</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.008270731195807457</v>
+        <v>0.00240844301879406</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002599097322672606</v>
+        <v>0.000248777330853045</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01846347749233246</v>
+        <v>0.001764075830578804</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.003111412050202489</v>
+        <v>0.0004118407377973199</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0003883684403263032</v>
+        <v>0.005361231975257397</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01624495536088943</v>
+        <v>0.007291261106729507</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.002882189583033323</v>
+        <v>0.002750449348241091</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.004242945462465286</v>
+        <v>0.0137910507619381</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01601332426071167</v>
+        <v>0.008203014731407166</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.001015050220303237</v>
+        <v>0.004518687725067139</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0007481034845113754</v>
+        <v>0.008498385548591614</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.001478480873629451</v>
+        <v>0.007095917128026485</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.00992004107683897</v>
+        <v>0.007489752024412155</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001881529111415148</v>
+        <v>0.003846562001854181</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.003414297010749578</v>
+        <v>0.005124420858919621</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.007734536193311214</v>
+        <v>0.007546397857367992</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.004065461456775665</v>
+        <v>0.000709929212462157</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.02966604381799698</v>
+        <v>0.05792265012860298</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.008180249482393265</v>
+        <v>0.00284512946382165</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.01180263981223106</v>
+        <v>0.00432521291077137</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.008048857562243938</v>
+        <v>0.003312766784802079</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.04378187656402588</v>
+        <v>0.004838784690946341</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.002236713189631701</v>
+        <v>0.005306672304868698</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.001120115164667368</v>
+        <v>0.01488570496439934</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0008501643314957619</v>
+        <v>0.00635894201695919</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.01253937371075153</v>
+        <v>0.009420977905392647</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01281573437154293</v>
+        <v>0.01211782358586788</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0005855988711118698</v>
+        <v>0.01811728253960609</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.01864553429186344</v>
+        <v>0.01235800143331289</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.008369117975234985</v>
+        <v>0.03437091037631035</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.006236379500478506</v>
+        <v>0.007426565978676081</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.00657786475494504</v>
+        <v>0.003949720878154039</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01300456188619137</v>
+        <v>0.0148693285882473</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.004423110280185938</v>
+        <v>0.0009880184661597013</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.006937099620699883</v>
+        <v>0.01059270370751619</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.00618023844435811</v>
+        <v>0.01168635115027428</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.009097299538552761</v>
+        <v>0.004893748555332422</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01128966547548771</v>
+        <v>0.003052592743188143</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01420140638947487</v>
+        <v>0.007972307503223419</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.009578720666468143</v>
+        <v>0.006972644943743944</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.004675154574215412</v>
+        <v>0.00289008067920804</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.01469824463129044</v>
+        <v>0.006829544436186552</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.008056933060288429</v>
+        <v>0.004396851174533367</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.003266691463068128</v>
+        <v>0.001272907247766852</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.01950268447399139</v>
+        <v>0.03084861859679222</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.00365790817886591</v>
+        <v>0.009500628337264061</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.003528960514813662</v>
+        <v>0.003931665327399969</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01610487326979637</v>
+        <v>0.000475649198051542</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.02505038119852543</v>
+        <v>0.006719714496284723</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.003736035665497184</v>
+        <v>0.009506498463451862</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.006383868865668774</v>
+        <v>0.00149294501170516</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0144856683909893</v>
+        <v>0.003885478479787707</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.002741888631135225</v>
+        <v>0.0002172754611819983</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.01544224936515093</v>
+        <v>0.01442501880228519</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.003366061486303806</v>
+        <v>0.006965266540646553</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.004999697674065828</v>
+        <v>0.004844359587877989</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.008317340165376663</v>
+        <v>0.00435128528624773</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.01351511105895042</v>
+        <v>0.006044243928045034</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.002594158984720707</v>
+        <v>0.003854217939078808</v>
       </c>
       <c r="CK13" t="n">
-        <v>4.223344149067998e-06</v>
+        <v>0.003790640737861395</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.002909146947786212</v>
+        <v>0.005592984613031149</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.003377425251528621</v>
+        <v>0.01388347242027521</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.008726939558982849</v>
+        <v>0.0007932994049042463</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.009226011112332344</v>
+        <v>0.005570509936660528</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.006178772542625666</v>
+        <v>0.01465542800724506</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.009368307888507843</v>
+        <v>0.01335102785378695</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.01562225073575974</v>
+        <v>0.01241196971386671</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.003233530558645725</v>
+        <v>0.01111125946044922</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.00792502798140049</v>
+        <v>0.003109805285930634</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.004805012606084347</v>
+        <v>0.008289970457553864</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.00423446437343955</v>
+        <v>0.0003277172509115189</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.01512831728905439</v>
+        <v>0.01363167259842157</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.00309722451493144</v>
+        <v>0.005967275239527225</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.002457368187606335</v>
+        <v>0.007835098542273045</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.009593507274985313</v>
+        <v>0.005319413729012012</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0112040787935257</v>
+        <v>0.006810033693909645</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.004737859591841698</v>
+        <v>0.005198796279728413</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.003906809724867344</v>
+        <v>0.005456472281366587</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.003330571576952934</v>
+        <v>0.003689792472869158</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01519443746656179</v>
+        <v>0.005795667879283428</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.003715293249115348</v>
+        <v>0.01313889399170876</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01101395674049854</v>
+        <v>0.01181857753545046</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.01045032031834126</v>
+        <v>0.02904278971254826</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01553522143512964</v>
+        <v>0.006863774266093969</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.00129423663020134</v>
+        <v>0.007724453695118427</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.01614232361316681</v>
+        <v>0.002825801726430655</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.005478003527969122</v>
+        <v>0.00192351033911109</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.008680732920765877</v>
+        <v>0.00557427667081356</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.003238091478124261</v>
+        <v>0.007083493284881115</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.003154403064399958</v>
+        <v>0.004092266783118248</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.006565830670297146</v>
+        <v>0.00167722231708467</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.003630788996815681</v>
+        <v>0.004007133189588785</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0003196864854544401</v>
+        <v>0.006166164297610521</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.01241132523864508</v>
+        <v>0.006029566749930382</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.004313907120376825</v>
+        <v>0.005637085065245628</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0007814256241545081</v>
+        <v>0.003538434859365225</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.006287672556936741</v>
+        <v>0.008514180779457092</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001783528132364154</v>
+        <v>0.0042829979211092</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.003315242938697338</v>
+        <v>0.003511090064421296</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.002168175065889955</v>
+        <v>0.01422491483390331</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001879273913800716</v>
+        <v>0.001357648521661758</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.001142841880209744</v>
+        <v>0.008128060959279537</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.00933245662599802</v>
+        <v>0.005015063099563122</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.004725604318082333</v>
+        <v>0.002397234318777919</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.006237482186406851</v>
+        <v>0.001328210346400738</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.009674748405814171</v>
+        <v>0.00532271945849061</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.003951253835111856</v>
+        <v>0.0102662704885006</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01962605491280556</v>
+        <v>0.01377177983522415</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.01296644750982523</v>
+        <v>0.005483993329107761</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.002664860803633928</v>
+        <v>0.004168950021266937</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.02543167769908905</v>
+        <v>0.002843505935743451</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.01391128823161125</v>
+        <v>0.00559732411056757</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0004038936458528042</v>
+        <v>0.007089343853294849</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.01099427975714207</v>
+        <v>0.001270719105377793</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.007078292313963175</v>
+        <v>0.001990661956369877</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.004983179736882448</v>
+        <v>0.0007277142722159624</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.006209876853972673</v>
+        <v>0.006206242367625237</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.00769340805709362</v>
+        <v>0.005037328228354454</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.007398175075650215</v>
+        <v>0.003112999722361565</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.008678019046783447</v>
+        <v>0.005586758255958557</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.01724950782954693</v>
+        <v>0.01008878462016582</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.01092373579740524</v>
+        <v>0.009542716667056084</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0007560210069641471</v>
+        <v>0.0112857474014163</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.008030706085264683</v>
+        <v>0.006479622796177864</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.005529311951249838</v>
+        <v>0.001151663716882467</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.01505441311746836</v>
+        <v>0.0133225079625845</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.00165646756067872</v>
+        <v>0.004397907759994268</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.002341068349778652</v>
+        <v>0.006177911069244146</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.007545163854956627</v>
+        <v>0.003743528155609965</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0114902202039957</v>
+        <v>0.005521371029317379</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.002974162576720119</v>
+        <v>0.00580659182742238</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.003375505562871695</v>
+        <v>0.003646144177764654</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.003335920628160238</v>
+        <v>0.006530437152832747</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.00933137908577919</v>
+        <v>0.005909050814807415</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.01626622676849365</v>
+        <v>0.006837671622633934</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.01793691515922546</v>
+        <v>0.007972369901835918</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.002951009199023247</v>
+        <v>0.01212129835039377</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01450218074023724</v>
+        <v>0.007665920536965132</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.01816146075725555</v>
+        <v>0.004915529862046242</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.003241993486881256</v>
+        <v>0.006827594246715307</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.003103843424469233</v>
+        <v>0.006592946127057076</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.009653433226048946</v>
+        <v>0.00501698162406683</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.002062150277197361</v>
+        <v>0.001383577240630984</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01573913730680943</v>
+        <v>0.006801934447139502</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.004355347715318203</v>
+        <v>0.007514047902077436</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.01493304315954447</v>
+        <v>0.003944656811654568</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004736118949949741</v>
+        <v>0.009308093227446079</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.01735582761466503</v>
+        <v>0.004338014405220747</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0005113357328809798</v>
+        <v>0.001353535801172256</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.004861450288444757</v>
+        <v>0.002810160862281919</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.001233247574418783</v>
+        <v>0.008812081068754196</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0058633117005229</v>
+        <v>0.0133697846904397</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.006406619679182768</v>
+        <v>0.004076543729752302</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.002274254104122519</v>
+        <v>0.001819008612073958</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.01242259331047535</v>
+        <v>0.001006625592708588</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.008482204750180244</v>
+        <v>0.00368634145706892</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.001713869161903858</v>
+        <v>0.007235222496092319</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0009735324420034885</v>
+        <v>0.02175240404903889</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.02215874753892422</v>
+        <v>0.005577054806053638</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.005673171952366829</v>
+        <v>0.01110307686030865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.008828407153487206</v>
+        <v>0.00605520186945796</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0141983088105917</v>
+        <v>0.07111711055040359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04796421900391579</v>
+        <v>0.003004972590133548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07880908995866776</v>
+        <v>0.04241321608424187</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06633776426315308</v>
+        <v>0.02354795671999454</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2714600265026093</v>
+        <v>0.09279944002628326</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05020368471741676</v>
+        <v>0.0007006078958511353</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3037058413028717</v>
+        <v>0.0456116572022438</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008465033955872059</v>
+        <v>0.006559393368661404</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002425834536552429</v>
+        <v>0.01819384098052979</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001465452834963799</v>
+        <v>0.06220272555947304</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07042223960161209</v>
+        <v>0.005882679019123316</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04950515925884247</v>
+        <v>0.03168440237641335</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1123150661587715</v>
+        <v>0.01343173999339342</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2545886635780334</v>
+        <v>0.09082676470279694</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07736312597990036</v>
+        <v>0.001725750043988228</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3322240710258484</v>
+        <v>0.02369652129709721</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03100856393575668</v>
+        <v>0.003489743918180466</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0628964975476265</v>
+        <v>0.003972571808844805</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0100232595577836</v>
+        <v>0.004146374762058258</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02609415352344513</v>
+        <v>0.006603076122701168</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01752453669905663</v>
+        <v>0.01090054865926504</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03413489460945129</v>
+        <v>0.01517199072986841</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06667109578847885</v>
+        <v>0.01057664584368467</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01177998352795839</v>
+        <v>0.00880656111985445</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08032283186912537</v>
+        <v>0.008946099318563938</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004072154406458139</v>
+        <v>0.009955420158803463</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001442674780264497</v>
+        <v>0.004339603707194328</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01262673363089561</v>
+        <v>0.004715758375823498</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01284462958574295</v>
+        <v>0.007002281956374645</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06627363711595535</v>
+        <v>0.0006738591473549604</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.09500317275524139</v>
+        <v>0.006307448726147413</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.009878745302557945</v>
+        <v>0.008228148333728313</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1138183996081352</v>
+        <v>0.001540383556857705</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.006789836101233959</v>
+        <v>0.008307682350277901</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0462649017572403</v>
+        <v>0.0007116454653441906</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01036653853952885</v>
+        <v>0.009851602837443352</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.02438373863697052</v>
+        <v>0.01001841388642788</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.07676682621240616</v>
+        <v>0.0008608037605881691</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.02557241544127464</v>
+        <v>0.004553984384983778</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1457829773426056</v>
+        <v>0.005768503062427044</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01650703139603138</v>
+        <v>0.0103003578260541</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.009084554389119148</v>
+        <v>0.0006049014627933502</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.01030374597758055</v>
+        <v>0.008232093416154385</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.009159143082797527</v>
+        <v>0.005467869341373444</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.02578840032219887</v>
+        <v>0.003624787321314216</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.07464112341403961</v>
+        <v>0.04615496471524239</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0287957452237606</v>
+        <v>0.003870685584843159</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0004600171814672649</v>
+        <v>0.01378447189927101</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.03126147389411926</v>
+        <v>0.006629946641623974</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.146031379699707</v>
+        <v>0.04849285259842873</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.03202660381793976</v>
+        <v>0.002285039983689785</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1440640240907669</v>
+        <v>0.01814816519618034</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.007174938917160034</v>
+        <v>0.01074428297579288</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.04635219275951385</v>
+        <v>0.006256901659071445</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.006731376983225346</v>
+        <v>0.01541064772754908</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.02220523357391357</v>
+        <v>0.02084417827427387</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.055038683116436</v>
+        <v>0.01494728401303291</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.09293103963136673</v>
+        <v>0.021289287135005</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.03865035623311996</v>
+        <v>0.02260342240333557</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.08998169004917145</v>
+        <v>0.001755330711603165</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.04388197883963585</v>
+        <v>0.002037791069597006</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.01462351158261299</v>
+        <v>0.003097969107329845</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0105843422934413</v>
+        <v>8.054543286561966e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.03351498395204544</v>
+        <v>0.02007756568491459</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.02985293604433537</v>
+        <v>0.002811155747622252</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01037122309207916</v>
+        <v>0.01126546133309603</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.04069594293832779</v>
+        <v>0.00422744220122695</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.02093885280191898</v>
+        <v>0.000397734169382602</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.07357187569141388</v>
+        <v>0.001557913143187761</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0106838084757328</v>
+        <v>0.0003083990886807442</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.006769275292754173</v>
+        <v>0.0003693010658025742</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.02794795855879784</v>
+        <v>0.003379610367119312</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.009047216735780239</v>
+        <v>0.02606438659131527</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.004609555937349796</v>
+        <v>0.004629245959222317</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.01573263667523861</v>
+        <v>0.01250831596553326</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.04160715639591217</v>
+        <v>0.00706399604678154</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.1239346861839294</v>
+        <v>0.03238828107714653</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.03609592095017433</v>
+        <v>0.006001325324177742</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1292559504508972</v>
+        <v>0.01100552640855312</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.00631812447682023</v>
+        <v>0.005680672358721495</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.01689215190708637</v>
+        <v>0.001724930363707244</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.01959249749779701</v>
+        <v>0.00981336273252964</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.01747537776827812</v>
+        <v>0.008755505084991455</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.02284706756472588</v>
+        <v>0.00733715295791626</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.01936707273125648</v>
+        <v>0.004246060270816088</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.04627242684364319</v>
+        <v>0.01788116805255413</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.006353412754833698</v>
+        <v>0.005294790491461754</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.04576585814356804</v>
+        <v>0.006869924254715443</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.002154037589207292</v>
+        <v>0.004530639387667179</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.03294503316283226</v>
+        <v>0.009061673656105995</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.03374991193413734</v>
+        <v>0.002511260332539678</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.04756526276469231</v>
+        <v>0.002219727728515863</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.02015325240790844</v>
+        <v>0.001912951935082674</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.04915334284305573</v>
+        <v>0.00498613016679883</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.02022653073072433</v>
+        <v>0.007427274715155363</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.02576203085482121</v>
+        <v>0.01099291630089283</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.06368692964315414</v>
+        <v>0.0133527209982276</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.04767286404967308</v>
+        <v>7.108441786840558e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.02666301466524601</v>
+        <v>0.0002151514054276049</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.02957705035805702</v>
+        <v>0.00768456282094121</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.02081315964460373</v>
+        <v>0.008062686771154404</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.01700199954211712</v>
+        <v>0.01092622149735689</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.01983417198061943</v>
+        <v>0.002570623299106956</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.05147506669163704</v>
+        <v>0.01922774873673916</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.006388637702912092</v>
+        <v>0.004043932072818279</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.06196311861276627</v>
+        <v>0.01060015242546797</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.002713157329708338</v>
+        <v>0.0001493059098720551</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.149560809135437</v>
+        <v>0.005592879373580217</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.1338312178850174</v>
+        <v>0.003414056729525328</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.03700799122452736</v>
+        <v>0.00477557722479105</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.006556801497936249</v>
+        <v>0.03524743393063545</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.02464084513485432</v>
+        <v>0.007785850204527378</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.05938491225242615</v>
+        <v>0.0009349151514470577</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.00543337082490325</v>
+        <v>0.004661714192479849</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.02739084139466286</v>
+        <v>0.01843022741377354</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.02951407432556152</v>
+        <v>0.009370164014399052</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0318441204726696</v>
+        <v>0.0006741489050909877</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.01804373785853386</v>
+        <v>0.002201472176238894</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.007795171346515417</v>
+        <v>0.007165747229009867</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.03112567402422428</v>
+        <v>0.001076743006706238</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.04313527420163155</v>
+        <v>0.006861348170787096</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.007181772030889988</v>
+        <v>0.009305737912654877</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.03167728707194328</v>
+        <v>0.01465499401092529</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.007620751857757568</v>
+        <v>0.009712766855955124</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0145509522408247</v>
+        <v>0.006862504873424768</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.02130137383937836</v>
+        <v>0.001073208171874285</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.01679887995123863</v>
+        <v>0.002319824416190386</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.009901436977088451</v>
+        <v>0.01183941308408976</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.001280116615816951</v>
+        <v>0.001509353518486023</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.01274102926254272</v>
+        <v>0.003625744953751564</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0118584418669343</v>
+        <v>0.008922336623072624</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.01062450557947159</v>
+        <v>0.00133106205612421</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.02084499411284924</v>
+        <v>0.004525057040154934</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.02920037508010864</v>
+        <v>0.002731823362410069</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.081426702439785</v>
+        <v>0.00575572345405817</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.04891235753893852</v>
+        <v>0.009253531694412231</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.005735306069254875</v>
+        <v>0.008288519456982613</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.02328716218471527</v>
+        <v>0.0004415526054799557</v>
       </c>
       <c r="EJ14" t="n">
-        <v>3.447104245424271e-05</v>
+        <v>0.003096663858741522</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.06459344923496246</v>
+        <v>0.01684578135609627</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.0101357838138938</v>
+        <v>0.005216921214014292</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.07829602807760239</v>
+        <v>0.003250750247389078</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.001561876852065325</v>
+        <v>0.0005514324875548482</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.02447551861405373</v>
+        <v>0.001486499444581568</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.006299490109086037</v>
+        <v>0.001952224294655025</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.04451548308134079</v>
+        <v>0.001134876627475023</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.01248280052095652</v>
+        <v>0.003347649006173015</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.03362417966127396</v>
+        <v>0.0003602064680308104</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.03883671015501022</v>
+        <v>0.007651521358639002</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.01335850544273853</v>
+        <v>0.001497975550591946</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.02052495069801807</v>
+        <v>0.02671957388520241</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.002496304688975215</v>
+        <v>0.007956605404615402</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.02098472602665424</v>
+        <v>0.0004537884960882366</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.03350348770618439</v>
+        <v>0.006299460772424936</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.02495613321661949</v>
+        <v>0.00541710015386343</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.03552691638469696</v>
+        <v>0.01011752896010876</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03726528957486153</v>
+        <v>0.003882639110088348</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.05499569326639175</v>
+        <v>0.01657954417169094</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.01056115236133337</v>
+        <v>0.007062651682645082</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.06246932223439217</v>
+        <v>0.006550000980496407</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.005784786771982908</v>
+        <v>0.003273742273449898</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.006296266335994005</v>
+        <v>0.003479471895843744</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.01634733378887177</v>
+        <v>0.006586012896150351</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.007458203472197056</v>
+        <v>0.005987388081848621</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.01584399864077568</v>
+        <v>0.01997215300798416</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.0220544096082449</v>
+        <v>0.002293068915605545</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.002356908284127712</v>
+        <v>0.007563839666545391</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.02045532315969467</v>
+        <v>0.003190956311300397</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.009990055114030838</v>
+        <v>0.002799129579216242</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.00728442519903183</v>
+        <v>0.006272230762988329</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.06868346035480499</v>
+        <v>0.008615442551672459</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.007614008150994778</v>
+        <v>0.01226801797747612</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.01474883686751127</v>
+        <v>0.005249871406704187</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.01768884062767029</v>
+        <v>0.01939520984888077</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.03979970887303352</v>
+        <v>0.009408886544406414</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.06570807099342346</v>
+        <v>0.009016778320074081</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.04943503811955452</v>
+        <v>0.003522311570122838</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0800931304693222</v>
+        <v>0.004928651265799999</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.001384624280035496</v>
+        <v>0.008423935621976852</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.01904942840337753</v>
+        <v>0.0132762948051095</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.01527061220258474</v>
+        <v>0.00669210497289896</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.007350928150117397</v>
+        <v>0.007452181074768305</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.00937274843454361</v>
+        <v>0.005016274284571409</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.02654871717095375</v>
+        <v>0.01234840601682663</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.005130275152623653</v>
+        <v>0.002573397941887379</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.02794896252453327</v>
+        <v>0.03399992361664772</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.005154427140951157</v>
+        <v>0.006381338462233543</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.009592564776539803</v>
+        <v>0.005575570277869701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.283802991267294e-05</v>
+        <v>0.00204048864543438</v>
       </c>
       <c r="B15" t="n">
-        <v>5.427564246929251e-06</v>
+        <v>0.02313845045864582</v>
       </c>
       <c r="C15" t="n">
-        <v>6.227483936527278e-06</v>
+        <v>0.0003172686265315861</v>
       </c>
       <c r="D15" t="n">
-        <v>6.100859900470823e-05</v>
+        <v>0.01797297969460487</v>
       </c>
       <c r="E15" t="n">
-        <v>1.586017788213212e-05</v>
+        <v>0.00418649148195982</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0001771149254636839</v>
+        <v>0.004857760388404131</v>
       </c>
       <c r="G15" t="n">
-        <v>5.170678559807129e-05</v>
+        <v>0.002304533030837774</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0002866742142941803</v>
+        <v>0.004099972080439329</v>
       </c>
       <c r="I15" t="n">
-        <v>2.364910687902011e-05</v>
+        <v>0.0011614840477705</v>
       </c>
       <c r="J15" t="n">
-        <v>2.813177343341522e-05</v>
+        <v>0.0007797430735081434</v>
       </c>
       <c r="K15" t="n">
-        <v>2.516662061680108e-05</v>
+        <v>0.02189173176884651</v>
       </c>
       <c r="L15" t="n">
-        <v>1.149306626757607e-06</v>
+        <v>0.001978922635316849</v>
       </c>
       <c r="M15" t="n">
-        <v>1.129966585722286e-05</v>
+        <v>0.01560214348137379</v>
       </c>
       <c r="N15" t="n">
-        <v>1.413894824509043e-05</v>
+        <v>0.006255005020648241</v>
       </c>
       <c r="O15" t="n">
-        <v>9.958915325114504e-05</v>
+        <v>0.001794697367586195</v>
       </c>
       <c r="P15" t="n">
-        <v>5.211879761191085e-05</v>
+        <v>0.001185495057143271</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0003455401456449181</v>
+        <v>0.00322849047370255</v>
       </c>
       <c r="R15" t="n">
-        <v>1.729952964524273e-05</v>
+        <v>0.001944284420460463</v>
       </c>
       <c r="S15" t="n">
-        <v>1.31735860122717e-05</v>
+        <v>0.001649635145440698</v>
       </c>
       <c r="T15" t="n">
-        <v>2.257475898659322e-06</v>
+        <v>0.004376377444714308</v>
       </c>
       <c r="U15" t="n">
-        <v>2.201688403147273e-06</v>
+        <v>1.296593109145761e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.675537168921437e-05</v>
+        <v>0.0007236648816615343</v>
       </c>
       <c r="W15" t="n">
-        <v>4.186121805105358e-05</v>
+        <v>0.001223614206537604</v>
       </c>
       <c r="X15" t="n">
-        <v>4.021237691631541e-05</v>
+        <v>0.0002399843506282195</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.49484757357277e-05</v>
+        <v>0.002316733356565237</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.144864892121404e-05</v>
+        <v>0.003333220491185784</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.642752512358129e-06</v>
+        <v>0.003583193989470601</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.450793519732542e-05</v>
+        <v>0.0004844078794121742</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.938903657603078e-05</v>
+        <v>0.00504347775131464</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.212402457895223e-05</v>
+        <v>0.0009770197793841362</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.760624273738358e-06</v>
+        <v>6.979249883443117e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.368797868257388e-05</v>
+        <v>0.001538332435302436</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.655897151271347e-05</v>
+        <v>0.002275535138323903</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0001044787277351134</v>
+        <v>0.002107339445501566</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.728998176986352e-05</v>
+        <v>0.0007809916278347373</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.831663732649758e-05</v>
+        <v>0.0008483229903504252</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.115975010179682e-05</v>
+        <v>0.001271125394850969</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.900734009221196e-05</v>
+        <v>0.002656278200447559</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.960118894814514e-05</v>
+        <v>9.462748130317777e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.688878182903863e-05</v>
+        <v>0.001967964228242636</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0001212573915836401</v>
+        <v>0.003588306251913309</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.676915235293563e-05</v>
+        <v>0.001651891972869635</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.389988483424531e-06</v>
+        <v>0.003026031889021397</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.397194591845619e-05</v>
+        <v>0.001042600139044225</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.223571234731935e-05</v>
+        <v>7.315245966310613e-06</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.527306398609653e-05</v>
+        <v>0.003962119575589895</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.186978422803804e-05</v>
+        <v>0.01820545271039009</v>
       </c>
       <c r="AV15" t="n">
-        <v>7.067059414112009e-06</v>
+        <v>0.004280108027160168</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.156669117743149e-05</v>
+        <v>0.004767477046698332</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.852259609033354e-06</v>
+        <v>0.001690026256255805</v>
       </c>
       <c r="AY15" t="n">
-        <v>7.553225441370159e-05</v>
+        <v>0.001607106067240238</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4.922003427054733e-07</v>
+        <v>0.000835749669931829</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0001102261157939211</v>
+        <v>0.002652955474331975</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.750983574311249e-05</v>
+        <v>0.000784540839958936</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.289179181185318e-05</v>
+        <v>0.004346685484051704</v>
       </c>
       <c r="BD15" t="n">
-        <v>8.318949767271988e-06</v>
+        <v>0.001409901073202491</v>
       </c>
       <c r="BE15" t="n">
-        <v>2.82213841273915e-05</v>
+        <v>0.004118717741221189</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.843879337888211e-05</v>
+        <v>0.002521950285881758</v>
       </c>
       <c r="BG15" t="n">
-        <v>9.224566383636557e-06</v>
+        <v>0.004878808278590441</v>
       </c>
       <c r="BH15" t="n">
-        <v>4.260267814970575e-06</v>
+        <v>0.002219323301687837</v>
       </c>
       <c r="BI15" t="n">
-        <v>6.903664325363934e-05</v>
+        <v>0.0003115875297226012</v>
       </c>
       <c r="BJ15" t="n">
-        <v>9.468733333051205e-05</v>
+        <v>0.005276320036500692</v>
       </c>
       <c r="BK15" t="n">
-        <v>7.341162563534454e-05</v>
+        <v>0.0009241763618774712</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.744441942719277e-05</v>
+        <v>0.003303064033389091</v>
       </c>
       <c r="BM15" t="n">
-        <v>2.84949092019815e-05</v>
+        <v>0.003601133590564132</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.045157296175603e-05</v>
+        <v>0.000812167301774025</v>
       </c>
       <c r="BO15" t="n">
-        <v>2.624256012495607e-08</v>
+        <v>0.001400201348587871</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.078966306522489e-05</v>
+        <v>0.006390348076820374</v>
       </c>
       <c r="BQ15" t="n">
-        <v>3.113404454779811e-05</v>
+        <v>0.001624531578272581</v>
       </c>
       <c r="BR15" t="n">
-        <v>7.675383676541969e-05</v>
+        <v>0.0008918547537177801</v>
       </c>
       <c r="BS15" t="n">
-        <v>3.174736048094928e-05</v>
+        <v>0.002177475253120065</v>
       </c>
       <c r="BT15" t="n">
-        <v>1.324701042904053e-05</v>
+        <v>0.003005301347002387</v>
       </c>
       <c r="BU15" t="n">
-        <v>2.850964301615022e-05</v>
+        <v>0.001769402646459639</v>
       </c>
       <c r="BV15" t="n">
-        <v>2.06147124117706e-05</v>
+        <v>0.008787378668785095</v>
       </c>
       <c r="BW15" t="n">
-        <v>1.209857146022841e-06</v>
+        <v>0.0009435181273147464</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.984682239708491e-05</v>
+        <v>0.00227796658873558</v>
       </c>
       <c r="BY15" t="n">
-        <v>1.621990122657735e-05</v>
+        <v>0.002287188544869423</v>
       </c>
       <c r="BZ15" t="n">
-        <v>8.393949246965349e-05</v>
+        <v>0.001066923490725458</v>
       </c>
       <c r="CA15" t="n">
-        <v>3.257199568906799e-05</v>
+        <v>0.002042550593614578</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0001043392621795647</v>
+        <v>0.0003235331387259066</v>
       </c>
       <c r="CC15" t="n">
-        <v>1.719561259960756e-05</v>
+        <v>0.002256168751046062</v>
       </c>
       <c r="CD15" t="n">
-        <v>9.381910786032677e-06</v>
+        <v>0.0001367096410831437</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.452168180549052e-05</v>
+        <v>0.00415341230109334</v>
       </c>
       <c r="CF15" t="n">
-        <v>4.5043357204122e-06</v>
+        <v>0.000757418223656714</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.670462006586604e-05</v>
+        <v>0.001342139556072652</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.080692163668573e-05</v>
+        <v>0.0008384785032831132</v>
       </c>
       <c r="CI15" t="n">
-        <v>2.259942630189471e-05</v>
+        <v>0.001041678595356643</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1.130985401687212e-05</v>
+        <v>0.0007302277954295278</v>
       </c>
       <c r="CK15" t="n">
-        <v>5.574226815951988e-05</v>
+        <v>0.0004036806058138609</v>
       </c>
       <c r="CL15" t="n">
-        <v>4.0641643863637e-06</v>
+        <v>0.0006595211452804506</v>
       </c>
       <c r="CM15" t="n">
-        <v>3.296692739240825e-05</v>
+        <v>0.007866551168262959</v>
       </c>
       <c r="CN15" t="n">
-        <v>2.167186539736576e-05</v>
+        <v>0.002631722018122673</v>
       </c>
       <c r="CO15" t="n">
-        <v>3.356506203999743e-05</v>
+        <v>0.0005324726807884872</v>
       </c>
       <c r="CP15" t="n">
-        <v>8.356584658031352e-06</v>
+        <v>0.007683404255658388</v>
       </c>
       <c r="CQ15" t="n">
-        <v>2.522050453990232e-05</v>
+        <v>0.006520234048366547</v>
       </c>
       <c r="CR15" t="n">
-        <v>4.31329281127546e-05</v>
+        <v>0.002453233581036329</v>
       </c>
       <c r="CS15" t="n">
-        <v>1.905315730255097e-05</v>
+        <v>0.005337046459317207</v>
       </c>
       <c r="CT15" t="n">
-        <v>2.097964897984639e-05</v>
+        <v>0.006777374073863029</v>
       </c>
       <c r="CU15" t="n">
-        <v>4.572774923872203e-05</v>
+        <v>0.0001625257427804172</v>
       </c>
       <c r="CV15" t="n">
-        <v>7.036947863525711e-06</v>
+        <v>0.0006719677476212382</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.380688627250493e-05</v>
+        <v>0.003747478593140841</v>
       </c>
       <c r="CX15" t="n">
-        <v>2.17523461287783e-06</v>
+        <v>0.001650928636081517</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.144338693848113e-05</v>
+        <v>0.002883469220250845</v>
       </c>
       <c r="CZ15" t="n">
-        <v>8.649494702694938e-06</v>
+        <v>0.00101289851590991</v>
       </c>
       <c r="DA15" t="n">
-        <v>2.656232936715242e-05</v>
+        <v>0.0007101313094608486</v>
       </c>
       <c r="DB15" t="n">
-        <v>3.799654223257676e-06</v>
+        <v>0.001373455277644098</v>
       </c>
       <c r="DC15" t="n">
-        <v>6.152011337690055e-05</v>
+        <v>0.0008911755285225809</v>
       </c>
       <c r="DD15" t="n">
-        <v>5.973617589916103e-06</v>
+        <v>1.43313518492505e-05</v>
       </c>
       <c r="DE15" t="n">
-        <v>8.176807023119181e-05</v>
+        <v>0.002848365344107151</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.00012104104825994</v>
+        <v>0.0002124615712091327</v>
       </c>
       <c r="DG15" t="n">
-        <v>4.397646625875495e-05</v>
+        <v>0.002175802597776055</v>
       </c>
       <c r="DH15" t="n">
-        <v>3.128297612420283e-05</v>
+        <v>0.003859329503029585</v>
       </c>
       <c r="DI15" t="n">
-        <v>7.264588930411264e-05</v>
+        <v>0.001017273752950132</v>
       </c>
       <c r="DJ15" t="n">
-        <v>8.060651452979073e-05</v>
+        <v>0.000132251821924001</v>
       </c>
       <c r="DK15" t="n">
-        <v>9.882446647679899e-06</v>
+        <v>9.033136302605271e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>1.717038685455918e-05</v>
+        <v>0.001581138232722878</v>
       </c>
       <c r="DM15" t="n">
-        <v>3.881462180288509e-05</v>
+        <v>0.0008922094712033868</v>
       </c>
       <c r="DN15" t="n">
-        <v>2.087502070935443e-05</v>
+        <v>0.0001144923735409975</v>
       </c>
       <c r="DO15" t="n">
-        <v>3.536380972946063e-05</v>
+        <v>0.0008948990143835545</v>
       </c>
       <c r="DP15" t="n">
-        <v>1.210828850162216e-05</v>
+        <v>0.002163309836760163</v>
       </c>
       <c r="DQ15" t="n">
-        <v>4.847307081945473e-06</v>
+        <v>0.003058963920921087</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.804281964723486e-05</v>
+        <v>0.0026127805467695</v>
       </c>
       <c r="DS15" t="n">
-        <v>2.116719952027779e-05</v>
+        <v>0.0003030444495379925</v>
       </c>
       <c r="DT15" t="n">
-        <v>4.391120455693454e-05</v>
+        <v>0.0002397216885583475</v>
       </c>
       <c r="DU15" t="n">
-        <v>3.761685729841702e-05</v>
+        <v>0.001693193567916751</v>
       </c>
       <c r="DV15" t="n">
-        <v>2.45715618802933e-05</v>
+        <v>0.002220205496996641</v>
       </c>
       <c r="DW15" t="n">
-        <v>1.40474121508305e-05</v>
+        <v>0.001370731508359313</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.039011294778902e-06</v>
+        <v>0.002397410338744521</v>
       </c>
       <c r="DY15" t="n">
-        <v>2.421003955532797e-05</v>
+        <v>0.003006635466590524</v>
       </c>
       <c r="DZ15" t="n">
-        <v>2.870523167075589e-05</v>
+        <v>0.00113787455484271</v>
       </c>
       <c r="EA15" t="n">
-        <v>4.321783490013331e-05</v>
+        <v>0.0002005323767662048</v>
       </c>
       <c r="EB15" t="n">
-        <v>2.589733776403591e-05</v>
+        <v>0.0006766590522602201</v>
       </c>
       <c r="EC15" t="n">
-        <v>9.686542398412712e-06</v>
+        <v>0.001775635057128966</v>
       </c>
       <c r="ED15" t="n">
-        <v>5.809143203805434e-06</v>
+        <v>0.001838086755014956</v>
       </c>
       <c r="EE15" t="n">
-        <v>9.797402526601218e-06</v>
+        <v>0.0003064034390263259</v>
       </c>
       <c r="EF15" t="n">
-        <v>2.114050585078076e-05</v>
+        <v>0.0003260623198002577</v>
       </c>
       <c r="EG15" t="n">
-        <v>6.233563181012869e-05</v>
+        <v>0.002853359561413527</v>
       </c>
       <c r="EH15" t="n">
-        <v>2.958200639113784e-06</v>
+        <v>0.001727991853840649</v>
       </c>
       <c r="EI15" t="n">
-        <v>2.42396581597859e-05</v>
+        <v>0.002923561492934823</v>
       </c>
       <c r="EJ15" t="n">
-        <v>4.710331268142909e-05</v>
+        <v>0.004314104560762644</v>
       </c>
       <c r="EK15" t="n">
-        <v>1.06162260635756e-05</v>
+        <v>0.0006429659551940858</v>
       </c>
       <c r="EL15" t="n">
-        <v>1.417487510479987e-06</v>
+        <v>0.0007120741065591574</v>
       </c>
       <c r="EM15" t="n">
-        <v>6.60786172375083e-05</v>
+        <v>0.0003352649218868464</v>
       </c>
       <c r="EN15" t="n">
-        <v>3.853949237964116e-06</v>
+        <v>0.000991866341792047</v>
       </c>
       <c r="EO15" t="n">
-        <v>1.976564453798346e-05</v>
+        <v>0.0001455578021705151</v>
       </c>
       <c r="EP15" t="n">
-        <v>1.161078216682654e-05</v>
+        <v>0.004483310971409082</v>
       </c>
       <c r="EQ15" t="n">
-        <v>2.010564458032604e-05</v>
+        <v>0.001940592541359365</v>
       </c>
       <c r="ER15" t="n">
-        <v>4.625128713087179e-05</v>
+        <v>0.001703193527646363</v>
       </c>
       <c r="ES15" t="n">
-        <v>4.939326026942581e-05</v>
+        <v>0.0004354188276920468</v>
       </c>
       <c r="ET15" t="n">
-        <v>4.143027035752311e-05</v>
+        <v>0.001288429019041359</v>
       </c>
       <c r="EU15" t="n">
-        <v>2.817595304804854e-05</v>
+        <v>0.003264273516833782</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.183844506158493e-05</v>
+        <v>0.003816842334344983</v>
       </c>
       <c r="EW15" t="n">
-        <v>6.404123269021511e-06</v>
+        <v>0.003081798320636153</v>
       </c>
       <c r="EX15" t="n">
-        <v>6.612061042687856e-06</v>
+        <v>0.00043765630107373</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.676098509051371e-05</v>
+        <v>0.003891615197062492</v>
       </c>
       <c r="EZ15" t="n">
-        <v>3.221009819753817e-06</v>
+        <v>0.001036220928654075</v>
       </c>
       <c r="FA15" t="n">
-        <v>2.788662459352054e-05</v>
+        <v>0.001959110843017697</v>
       </c>
       <c r="FB15" t="n">
-        <v>2.884561763494276e-05</v>
+        <v>0.000440368487033993</v>
       </c>
       <c r="FC15" t="n">
-        <v>2.729198240558617e-05</v>
+        <v>0.0004508529091253877</v>
       </c>
       <c r="FD15" t="n">
-        <v>1.040704501065193e-05</v>
+        <v>0.001158581348136067</v>
       </c>
       <c r="FE15" t="n">
-        <v>7.146281859604642e-05</v>
+        <v>0.0003384279843885452</v>
       </c>
       <c r="FF15" t="n">
-        <v>6.567350737896049e-06</v>
+        <v>0.0004746599588543177</v>
       </c>
       <c r="FG15" t="n">
-        <v>1.165162575489376e-05</v>
+        <v>0.0002963683800771832</v>
       </c>
       <c r="FH15" t="n">
-        <v>1.002308636088856e-06</v>
+        <v>0.001575548434630036</v>
       </c>
       <c r="FI15" t="n">
-        <v>1.594744026078843e-05</v>
+        <v>0.005161426961421967</v>
       </c>
       <c r="FJ15" t="n">
-        <v>5.106081516714767e-06</v>
+        <v>0.002566083334386349</v>
       </c>
       <c r="FK15" t="n">
-        <v>5.885947030037642e-05</v>
+        <v>0.001360972877591848</v>
       </c>
       <c r="FL15" t="n">
-        <v>2.220745227532461e-05</v>
+        <v>0.0008491107728332281</v>
       </c>
       <c r="FM15" t="n">
-        <v>3.009938154718839e-05</v>
+        <v>0.001023632124997675</v>
       </c>
       <c r="FN15" t="n">
-        <v>2.579631836852059e-05</v>
+        <v>3.768735041376203e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>3.699298031278886e-05</v>
+        <v>0.0008881108369678259</v>
       </c>
       <c r="FP15" t="n">
-        <v>5.218700607656501e-05</v>
+        <v>0.00264901015907526</v>
       </c>
       <c r="FQ15" t="n">
-        <v>5.044433783041313e-05</v>
+        <v>0.001097355154342949</v>
       </c>
       <c r="FR15" t="n">
-        <v>5.356596375349909e-07</v>
+        <v>0.004944325890392065</v>
       </c>
       <c r="FS15" t="n">
-        <v>1.907192199723795e-07</v>
+        <v>0.002175896428525448</v>
       </c>
       <c r="FT15" t="n">
-        <v>1.396170409861952e-05</v>
+        <v>0.003253344213590026</v>
       </c>
       <c r="FU15" t="n">
-        <v>4.754186375066638e-05</v>
+        <v>0.002657542005181313</v>
       </c>
       <c r="FV15" t="n">
-        <v>4.15842623624485e-05</v>
+        <v>0.00125755462795496</v>
       </c>
       <c r="FW15" t="n">
-        <v>3.951899634557776e-05</v>
+        <v>0.0004856179875787348</v>
       </c>
       <c r="FX15" t="n">
-        <v>3.624580494943075e-05</v>
+        <v>0.001518592122010887</v>
       </c>
       <c r="FY15" t="n">
-        <v>2.257489177281968e-05</v>
+        <v>0.004361808300018311</v>
       </c>
       <c r="FZ15" t="n">
-        <v>5.952715582679957e-06</v>
+        <v>0.001484389184042811</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.161063028121134e-05</v>
+        <v>0.002144872676581144</v>
       </c>
       <c r="GB15" t="n">
-        <v>1.558871736051515e-05</v>
+        <v>0.001455323421396315</v>
       </c>
       <c r="GC15" t="n">
-        <v>9.306520951213315e-06</v>
+        <v>0.0007801305036991835</v>
       </c>
       <c r="GD15" t="n">
-        <v>2.871290416806005e-05</v>
+        <v>0.003843984566628933</v>
       </c>
       <c r="GE15" t="n">
-        <v>2.658009907463565e-05</v>
+        <v>0.009056613780558109</v>
       </c>
       <c r="GF15" t="n">
-        <v>2.47187363129342e-05</v>
+        <v>0.001379546825774014</v>
       </c>
       <c r="GG15" t="n">
-        <v>3.39570510732301e-06</v>
+        <v>0.002989866537973285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01364205218851566</v>
+        <v>0.008470552042126656</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002198271919041872</v>
+        <v>0.2703885734081268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02638140879571438</v>
+        <v>0.1138880401849747</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01200590468943119</v>
+        <v>0.02686166949570179</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02400168403983116</v>
+        <v>0.06162579730153084</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02701126970350742</v>
+        <v>0.03449483588337898</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03030872903764248</v>
+        <v>0.02684349566698074</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09647391736507416</v>
+        <v>0.006958406418561935</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01193462871015072</v>
+        <v>0.0166374184191227</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01379271782934666</v>
+        <v>0.04037036374211311</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007955554872751236</v>
+        <v>0.219831794500351</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03024705871939659</v>
+        <v>0.07793748378753662</v>
       </c>
       <c r="M16" t="n">
-        <v>0.008983316831290722</v>
+        <v>0.04635576158761978</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02482919581234455</v>
+        <v>0.04302459955215454</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00595832196995616</v>
+        <v>0.02403596043586731</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04783668369054794</v>
+        <v>0.01486489363014698</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1044179946184158</v>
+        <v>0.0454489067196846</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01811736077070236</v>
+        <v>0.02275429852306843</v>
       </c>
       <c r="S16" t="n">
-        <v>0.004353574477136135</v>
+        <v>0.006174187175929546</v>
       </c>
       <c r="T16" t="n">
-        <v>0.004350167699158192</v>
+        <v>0.02243567258119583</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008579107001423836</v>
+        <v>0.01037906855344772</v>
       </c>
       <c r="V16" t="n">
-        <v>0.009279808029532433</v>
+        <v>0.009536942467093468</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01600527763366699</v>
+        <v>0.001562380231916904</v>
       </c>
       <c r="X16" t="n">
-        <v>0.009676307439804077</v>
+        <v>0.02150831930339336</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02137212455272675</v>
+        <v>0.0005898196250200272</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.04650456458330154</v>
+        <v>0.05728831887245178</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.006324750371277332</v>
+        <v>0.01155564468353987</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01174012012779713</v>
+        <v>0.003654682077467442</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.02978016808629036</v>
+        <v>0.04582299292087555</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.02631546929478645</v>
+        <v>0.01182537898421288</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.00201971922069788</v>
+        <v>0.0005629216320812702</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.007024501916021109</v>
+        <v>0.0194521751254797</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0124328350648284</v>
+        <v>0.001566577702760696</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.02994005382061005</v>
+        <v>0.01965050026774406</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.004470309242606163</v>
+        <v>0.02145804092288017</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0001950048608705401</v>
+        <v>0.01619178615510464</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0004194090142846107</v>
+        <v>0.04029420763254166</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.005102881230413914</v>
+        <v>0.01915897242724895</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.01335652731359005</v>
+        <v>0.03371468931436539</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.003766125766560435</v>
+        <v>0.003912846557796001</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.04570585116744041</v>
+        <v>0.005491804797202349</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.003070260863751173</v>
+        <v>0.03729970753192902</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.001260827179066837</v>
+        <v>0.004604061134159565</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.008678941987454891</v>
+        <v>0.002529871882870793</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.002412273082882166</v>
+        <v>0.02214272320270538</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.004455355927348137</v>
+        <v>0.008388334885239601</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.02820895984768867</v>
+        <v>0.1426878571510315</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.002238296438008547</v>
+        <v>0.04719049483537674</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0006295475759543478</v>
+        <v>0.01429998129606247</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.01528998278081417</v>
+        <v>0.02934888750314713</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.00818068441003561</v>
+        <v>0.03010068833827972</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.01530607789754868</v>
+        <v>0.03113382682204247</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.03882814943790436</v>
+        <v>0.003468126291409135</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.01573224924504757</v>
+        <v>0.03165318816900253</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.00697640422731638</v>
+        <v>0.003633022308349609</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.003506523557007313</v>
+        <v>0.08171185851097107</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.0008420582162216306</v>
+        <v>0.05934037640690804</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.01353808399289846</v>
+        <v>0.01028682477772236</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.008549684658646584</v>
+        <v>0.01920597068965435</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.01281342748552561</v>
+        <v>0.02841269783675671</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.03417522460222244</v>
+        <v>0.004741019569337368</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.02310544811189175</v>
+        <v>0.04038112610578537</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.01471059117466211</v>
+        <v>0.01817730627954006</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.01455315295606852</v>
+        <v>0.01145474798977375</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01617317460477352</v>
+        <v>0.05375731363892555</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.002979833167046309</v>
+        <v>0.03083842620253563</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.01195653527975082</v>
+        <v>0.007127861492335796</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.007193962577730417</v>
+        <v>0.004074492491781712</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.02174823544919491</v>
+        <v>0.02435809373855591</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.005263951607048512</v>
+        <v>0.02065270580351353</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.02037053555250168</v>
+        <v>0.000438361894339323</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.0119477454572916</v>
+        <v>0.02419999055564404</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.01643181964755058</v>
+        <v>0.006239723414182663</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.004334543365985155</v>
+        <v>0.06856898218393326</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0196510124951601</v>
+        <v>0.0655546709895134</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.002499024150893092</v>
+        <v>0.01524824649095535</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.0111868791282177</v>
+        <v>0.02743257768452168</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.01190030481666327</v>
+        <v>0.01505301333963871</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.01203586347401142</v>
+        <v>0.008079580031335354</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.04146347567439079</v>
+        <v>0.002607285510748625</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.00826605036854744</v>
+        <v>0.005113512743264437</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.005345012061297894</v>
+        <v>0.007299689576029778</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.004635897930711508</v>
+        <v>0.04740438237786293</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.002281738445162773</v>
+        <v>0.006305425427854061</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.007254802156239748</v>
+        <v>0.005579016171395779</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.007436520420014858</v>
+        <v>0.02200199104845524</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.01070818956941366</v>
+        <v>0.004611825570464134</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.00902461726218462</v>
+        <v>0.01186761632561684</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0162531603127718</v>
+        <v>0.01231157220900059</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.003149442374706268</v>
+        <v>0.005920770112425089</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.01684955693781376</v>
+        <v>0.04296036809682846</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.008481212891638279</v>
+        <v>0.02093463763594627</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.01933122053742409</v>
+        <v>0.01358634140342474</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.0006818198598921299</v>
+        <v>0.01643460988998413</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.00698555912822485</v>
+        <v>0.01171394065022469</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.02264668233692646</v>
+        <v>0.0602000430226326</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.01069609913975</v>
+        <v>0.0439043827354908</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.002017935737967491</v>
+        <v>0.01577568612992764</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.01642833836376667</v>
+        <v>0.02827655151486397</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.008782440796494484</v>
+        <v>0.006910395808517933</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.007131724618375301</v>
+        <v>0.04620373621582985</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.001838050899095833</v>
+        <v>0.01199546176940203</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.009739679284393787</v>
+        <v>0.01426183246076107</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.003391583682969213</v>
+        <v>0.02974817529320717</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.01160551700741053</v>
+        <v>0.006303736008703709</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.00707131065428257</v>
+        <v>0.0124198142439127</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.01677904836833477</v>
+        <v>0.01627026870846748</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.002159768017008901</v>
+        <v>0.001562827033922076</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.01818721182644367</v>
+        <v>0.04725876450538635</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.02854851447045803</v>
+        <v>0.05286617204546928</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.006730003748089075</v>
+        <v>0.004033959470689297</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.03411726281046867</v>
+        <v>0.0543866753578186</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0376596674323082</v>
+        <v>0.0405244268476963</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0346338152885437</v>
+        <v>0.03829517215490341</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.002477813512086868</v>
+        <v>0.002220053225755692</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.002008047420531511</v>
+        <v>0.02183861844241619</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.020523801445961</v>
+        <v>0.03982254862785339</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.002572039142251015</v>
+        <v>0.009611411020159721</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.001015085843391716</v>
+        <v>0.02301420085132122</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.006478270050138235</v>
+        <v>0.009580580517649651</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.001912523061037064</v>
+        <v>0.0200444795191288</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.001198810059577227</v>
+        <v>0.005784009117633104</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.02211181446909904</v>
+        <v>0.01199579332023859</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.01454327069222927</v>
+        <v>0.01340471394360065</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.02041848748922348</v>
+        <v>0.02880650758743286</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.02301113121211529</v>
+        <v>0.01998312026262283</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.002198407426476479</v>
+        <v>0.004437556490302086</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.009452318772673607</v>
+        <v>0.04455491155385971</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.001817187527194619</v>
+        <v>0.0210171602666378</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.005587771534919739</v>
+        <v>0.001337788067758083</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.004496803041547537</v>
+        <v>0.007796206511557102</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.008582995273172855</v>
+        <v>0.0217187013477087</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.004990511573851109</v>
+        <v>0.007556492928415537</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.005664816126227379</v>
+        <v>0.001133659388870001</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.00418957881629467</v>
+        <v>0.01528788171708584</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.00055728480219841</v>
+        <v>0.02842530980706215</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.01475069206207991</v>
+        <v>0.02787721529603004</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.009965401142835617</v>
+        <v>0.01712825894355774</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.01470235176384449</v>
+        <v>0.006195398047566414</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.01769033446907997</v>
+        <v>0.002327853813767433</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.0199175551533699</v>
+        <v>0.009812943637371063</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.002634501317515969</v>
+        <v>0.006100752390921116</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.02684762142598629</v>
+        <v>0.0001756497658789158</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.007996893487870693</v>
+        <v>0.003945449367165565</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.01737573929131031</v>
+        <v>0.0001301146112382412</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.01971906051039696</v>
+        <v>0.03568445891141891</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.01105317752808332</v>
+        <v>0.01225990056991577</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.02981579303741455</v>
+        <v>0.01704124920070171</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.007801116444170475</v>
+        <v>0.04034117609262466</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.01654103770852089</v>
+        <v>0.01688701286911964</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.008766084909439087</v>
+        <v>0.02981240674853325</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.003317350056022406</v>
+        <v>0.03895566985011101</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.01104925107210875</v>
+        <v>0.05012222006917</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.006529034115374088</v>
+        <v>0.01342685520648956</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.004314228426665068</v>
+        <v>0.04536071047186852</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.003057524096220732</v>
+        <v>0.009124330244958401</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.01348728779703379</v>
+        <v>0.006368489935994148</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0003796757664531469</v>
+        <v>0.02704738639295101</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.01137206330895424</v>
+        <v>0.01009768713265657</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.008440114557743073</v>
+        <v>0.01849189400672913</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.02329596504569054</v>
+        <v>0.01623418368399143</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.001282458659261465</v>
+        <v>0.01032263599336147</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.00507085770368576</v>
+        <v>0.007750993594527245</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.009754332713782787</v>
+        <v>0.01222531963139772</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.001535186776891351</v>
+        <v>0.01782859861850739</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.003085803939029574</v>
+        <v>0.01616217195987701</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.0001231634523719549</v>
+        <v>0.04057909548282623</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.02857842668890953</v>
+        <v>0.007841167040169239</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.0140930162742734</v>
+        <v>0.004511931445449591</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.006666873581707478</v>
+        <v>0.02605859935283661</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.001162824220955372</v>
+        <v>0.02996622584760189</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.004490727558732033</v>
+        <v>0.03092149458825588</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.01863976754248142</v>
+        <v>0.008059829473495483</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.001981400651857257</v>
+        <v>0.05255837738513947</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.004721354693174362</v>
+        <v>0.008367480710148811</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.004938208032399416</v>
+        <v>0.01022344548255205</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.02168299630284309</v>
+        <v>0.02051020599901676</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.02022497914731503</v>
+        <v>0.01293567568063736</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.01393012795597315</v>
+        <v>0.005414047744125128</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.01953776553273201</v>
+        <v>0.01500506699085236</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.02006816491484642</v>
+        <v>0.02673418633639812</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.01413380354642868</v>
+        <v>0.0244535319507122</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.008628580719232559</v>
+        <v>0.03276589512825012</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.01368378009647131</v>
+        <v>0.0006672530435025692</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.005006552208214998</v>
+        <v>0.002679275348782539</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.01227875426411629</v>
+        <v>0.01628188788890839</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.006040035746991634</v>
+        <v>0.0395660474896431</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.007443592417985201</v>
+        <v>0.09976261854171753</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.005953837186098099</v>
+        <v>0.02178124152123928</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.007731934078037739</v>
+        <v>0.000907350389752537</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05609862506389618</v>
+        <v>0.01268154568970203</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02472582086920738</v>
+        <v>0.0007322457386180758</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07085178047418594</v>
+        <v>0.003431201912462711</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0387548953294754</v>
+        <v>0.001510578207671642</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01258216053247452</v>
+        <v>0.008244827389717102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01257140748202801</v>
+        <v>0.001664055860601366</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13992840051651</v>
+        <v>0.004313571378588676</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003895340720191598</v>
+        <v>0.0003180251223966479</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01306930091232061</v>
+        <v>0.002207092009484768</v>
       </c>
       <c r="K17" t="n">
-        <v>0.005209350027143955</v>
+        <v>0.01174016669392586</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007221371401101351</v>
+        <v>0.000193328145542182</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05568782612681389</v>
+        <v>0.002851213794201612</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05701229348778725</v>
+        <v>0.0007561584934592247</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05193091183900833</v>
+        <v>0.006532726809382439</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03088376671075821</v>
+        <v>0.002566480077803135</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1718357652425766</v>
+        <v>0.002228441881015897</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01003854908049107</v>
+        <v>8.402322418987751e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.005864134058356285</v>
+        <v>9.838283585850149e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02102705463767052</v>
+        <v>0.0009660638170316815</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01487042009830475</v>
+        <v>0.000270371267106384</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02418514341115952</v>
+        <v>0.0007180067477747798</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06658419221639633</v>
+        <v>0.00126212986651808</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01023603603243828</v>
+        <v>0.0009820389095693827</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.005569344852119684</v>
+        <v>0.0001089951547328383</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05309462174773216</v>
+        <v>0.001024381257593632</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001307067228481174</v>
+        <v>0.0007396464934572577</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01761852018535137</v>
+        <v>0.0002037471276707947</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02885613031685352</v>
+        <v>0.0009387811296619475</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002911724848672748</v>
+        <v>0.0006007151678204536</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02302712202072144</v>
+        <v>8.703465573489666e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.00404857425019145</v>
+        <v>0.00108433049172163</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.001017673406749964</v>
+        <v>0.0004504704265855253</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0289120078086853</v>
+        <v>4.176115908194333e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.02819844335317612</v>
+        <v>0.0009275198681280017</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.03113778308033943</v>
+        <v>0.0008514010114595294</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.002886444795876741</v>
+        <v>0.001309084007516503</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.03129829093813896</v>
+        <v>0.00151150964666158</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.002552048303186893</v>
+        <v>0.0005663918564096093</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.002408352680504322</v>
+        <v>0.0006480367155745625</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0375811867415905</v>
+        <v>0.001207529101520777</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.005281182006001472</v>
+        <v>0.002601188607513905</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.004260721616446972</v>
+        <v>0.000929299567360431</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.004637132864445448</v>
+        <v>0.0009196283062919974</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.004587894771248102</v>
+        <v>0.0008783219382166862</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.009080348536372185</v>
+        <v>0.0001428388059139252</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.04367056488990784</v>
+        <v>0.007330531720072031</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.011535351164639</v>
+        <v>0.001992098987102509</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.04337079450488091</v>
+        <v>0.0009276012424379587</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.008728781715035439</v>
+        <v>0.001253872876986861</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0114677008241415</v>
+        <v>0.004980628378689289</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.02267006039619446</v>
+        <v>0.001629196107387543</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.04771936312317848</v>
+        <v>0.001922569470480084</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.01261020358651876</v>
+        <v>0.001222708146087825</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.004344281274825335</v>
+        <v>0.0005587116465903819</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.01509733591228724</v>
+        <v>0.001967387739568949</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.005682630464434624</v>
+        <v>0.002332083415240049</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.02995308488607407</v>
+        <v>0.001848530955612659</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0223955325782299</v>
+        <v>0.003351767314597964</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.02173696644604206</v>
+        <v>0.002783280331641436</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.02949940599501133</v>
+        <v>0.0001026800455292687</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.03909371048212051</v>
+        <v>0.0003924043849110603</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.00682232016697526</v>
+        <v>0.0008569399360567331</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.01128449570387602</v>
+        <v>0.0004480156640056521</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.009946221485733986</v>
+        <v>0.001082832110114396</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.00731470063328743</v>
+        <v>0.0002430957974866033</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0002267605159431696</v>
+        <v>0.0001236133684869856</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.00522694131359458</v>
+        <v>0.000309035851387307</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.001452790340408683</v>
+        <v>0.0005600318545475602</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.01861162856221199</v>
+        <v>0.001287967665120959</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.02182851545512676</v>
+        <v>0.0005797009216621518</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.002923598513007164</v>
+        <v>0.0002618745202198625</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.02205569483339787</v>
+        <v>0.0001126764691434801</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.009065263904631138</v>
+        <v>0.004339274019002914</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.008440065197646618</v>
+        <v>0.0007182520930655301</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.01203279197216034</v>
+        <v>0.000535517290700227</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.01101066265255213</v>
+        <v>9.422916627954692e-05</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.01603587716817856</v>
+        <v>0.002382739912718534</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.03196070715785027</v>
+        <v>0.0002045993751380593</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.04900769516825676</v>
+        <v>0.0006742522236891091</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.01212172582745552</v>
+        <v>0.0007697620894759893</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.01378157176077366</v>
+        <v>0.000311045499984175</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.003788996953517199</v>
+        <v>0.002237652195617557</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.003492945339530706</v>
+        <v>0.0002989050117321312</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.01491022668778896</v>
+        <v>0.0004559916560538113</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.006801443174481392</v>
+        <v>0.0006630182033404708</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0006283496622927487</v>
+        <v>0.0005411102902144194</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.004792127292603254</v>
+        <v>0.0009993496350944042</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.02821040339767933</v>
+        <v>0.0006296471692621708</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.0005226745270192623</v>
+        <v>3.490792005322874e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.002916439436376095</v>
+        <v>0.001920577138662338</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.009231014177203178</v>
+        <v>0.000150833380757831</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.005624197423458099</v>
+        <v>0.0003768638707697392</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.004012904595583677</v>
+        <v>0.001928457757458091</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.02453229762613773</v>
+        <v>0.0006776266964152455</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.02200253307819366</v>
+        <v>0.001447192626073956</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.02436022460460663</v>
+        <v>0.001319065107963979</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.002410618821159005</v>
+        <v>0.0007694929372519255</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.02324341423809528</v>
+        <v>0.0001742204185575247</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.01124121062457561</v>
+        <v>0.0003174963349010795</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.001553878653794527</v>
+        <v>0.002193519845604897</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0049732462503016</v>
+        <v>0.0002998813288286328</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.01760705932974815</v>
+        <v>0.0008555952226743102</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.01238769199699163</v>
+        <v>0.0009214989258907735</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.002340057399123907</v>
+        <v>0.0007143233087845147</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.001771634793840349</v>
+        <v>0.000866295478772372</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.03097794763743877</v>
+        <v>0.001243749749846756</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.004214027896523476</v>
+        <v>0.0001184482534881681</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.02384498529136181</v>
+        <v>0.001025611185468733</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.08293746411800385</v>
+        <v>0.003121317131444812</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.01965080946683884</v>
+        <v>0.0008600055589340627</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.01646809279918671</v>
+        <v>0.003108303062617779</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.01163248531520367</v>
+        <v>0.00463974243029952</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.003720023669302464</v>
+        <v>0.003132854355499148</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.0002542233560234308</v>
+        <v>0.0008251445251516998</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.02631055004894733</v>
+        <v>0.002843593945726752</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.02483418211340904</v>
+        <v>0.001470705610699952</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.009599374607205391</v>
+        <v>0.0003131342527922243</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.006312646437436342</v>
+        <v>0.0005775841418653727</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.006442771293222904</v>
+        <v>0.0004121709789615124</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.01535689644515514</v>
+        <v>4.069741407874972e-05</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.003346120938658714</v>
+        <v>0.0001669169869273901</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.003517353441566229</v>
+        <v>0.001368573284707963</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.02859770506620407</v>
+        <v>0.0002416052739135921</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.005635425914078951</v>
+        <v>0.0001808419183362275</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.009721817448735237</v>
+        <v>0.0006266350974328816</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.01450158283114433</v>
+        <v>0.0001593966298969463</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.04405314475297928</v>
+        <v>0.001133845071308315</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.01061967108398676</v>
+        <v>0.0007781083695590496</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.007298790384083986</v>
+        <v>0.0007085920660756528</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.003380269510671496</v>
+        <v>0.000451358500868082</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.01105830632150173</v>
+        <v>0.000835361541248858</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.007033133879303932</v>
+        <v>0.0006183597724884748</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.01572780124843121</v>
+        <v>0.0009318147785961628</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.008376182988286018</v>
+        <v>0.001098297885619104</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.001529352273792028</v>
+        <v>0.0009117292938753963</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.005071032792329788</v>
+        <v>0.002263124566525221</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.01389405783265829</v>
+        <v>0.0006651678122580051</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.02040866203606129</v>
+        <v>0.0004510232247412205</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.004671470262110233</v>
+        <v>0.0002524036390241235</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.01191051583737135</v>
+        <v>0.0002912102499976754</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.01103557460010052</v>
+        <v>0.0008906494476832449</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.04984131082892418</v>
+        <v>0.0002389359724475071</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.007149681448936462</v>
+        <v>0.0002592047967482358</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.01304973661899567</v>
+        <v>0.000520318397320807</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.01974370330572128</v>
+        <v>0.002287334762513638</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.02232597395777702</v>
+        <v>0.0006171435234136879</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.01268390659242868</v>
+        <v>0.0009412061772309244</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.02532057091593742</v>
+        <v>0.001289759064093232</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.01462829671800137</v>
+        <v>0.0008482705452479422</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.009467886760830879</v>
+        <v>0.001037852140143514</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.01237025856971741</v>
+        <v>0.00160509895067662</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.01002657692879438</v>
+        <v>0.0007555900956504047</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.009796960279345512</v>
+        <v>0.0005188659415580332</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.001974227838218212</v>
+        <v>0.002239650348201394</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.004958029836416245</v>
+        <v>1.743232132866979e-05</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.01483903825283051</v>
+        <v>0.000245267990976572</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.01034330017864704</v>
+        <v>0.0008051072363741696</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.003778721671551466</v>
+        <v>0.0005312031134963036</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.003841621801257133</v>
+        <v>0.001179489307105541</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.03196592628955841</v>
+        <v>0.001243575708940625</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.0006610732525587082</v>
+        <v>0.00036618672311306</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.005821536295115948</v>
+        <v>0.0006627911934629083</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.03763337805867195</v>
+        <v>0.0004267643671482801</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.01164370030164719</v>
+        <v>2.124934690073133e-05</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.02185222320258617</v>
+        <v>0.001413983525708318</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.0124926995486021</v>
+        <v>0.0006030464428476989</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.002647268353030086</v>
+        <v>0.001382382237352431</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.008090101182460785</v>
+        <v>7.104018004611135e-05</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.01786940917372704</v>
+        <v>1.648563193157315e-05</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.003552239388227463</v>
+        <v>0.0008101864950731397</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.01979024894535542</v>
+        <v>0.001444882829673588</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.006217433139681816</v>
+        <v>0.0002008371957344934</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.03034943155944347</v>
+        <v>0.001556604402139783</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.009653791785240173</v>
+        <v>0.0002729178522713482</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.01352363266050816</v>
+        <v>0.001760825631208718</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.006828208919614553</v>
+        <v>0.0006803293363191187</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.02917362004518509</v>
+        <v>0.0002741203061304986</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.06049670279026031</v>
+        <v>0.0001327659556409344</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0168539434671402</v>
+        <v>0.001009470550343394</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02023334987461567</v>
+        <v>0.001833660062402487</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.02084151096642017</v>
+        <v>0.0007023223442956805</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.006548528093844652</v>
+        <v>0.0009577304008416831</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.0138979610055685</v>
+        <v>0.0004784695629496127</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.00620996905490756</v>
+        <v>0.001821496756747365</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.02526300400495529</v>
+        <v>0.001523438608273864</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.0238480418920517</v>
+        <v>0.00153305206913501</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.004263944458216429</v>
+        <v>0.0001507874694652855</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.007433076854795218</v>
+        <v>0.0001318330760113895</v>
       </c>
     </row>
     <row r="18">
